--- a/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$412</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:G412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11292,7 +11292,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B412"/>
+  <autoFilter ref="A1:G412"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
@@ -1461,7 +1461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,7 +1508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1518,6 +1524,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,10 +1808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G412"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="L385" sqref="L385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1826,7 @@
     <col min="7" max="7" width="65.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1837,8 +1848,13 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -1861,7 +1877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -1884,7 +1900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -1907,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1930,7 +1946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -1953,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1976,7 +1992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1999,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2022,7 +2038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2091,7 +2107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -2114,7 +2130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -2137,7 +2153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -2183,7 +2199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -2229,7 +2245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -2252,7 +2268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>6</v>
       </c>
@@ -2275,7 +2291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2298,7 +2314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>331</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>331</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>123</v>
       </c>
@@ -2412,8 +2428,13 @@
       <c r="G26" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>123</v>
       </c>
@@ -2435,8 +2456,13 @@
       <c r="G27" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>280</v>
       </c>
@@ -2459,7 +2485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>123</v>
       </c>
@@ -2481,8 +2507,15 @@
       <c r="G29" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>123</v>
       </c>
@@ -2504,8 +2537,13 @@
       <c r="G30" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H30" s="11"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>123</v>
       </c>
@@ -2527,8 +2565,13 @@
       <c r="G31" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H31" s="11"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>123</v>
       </c>
@@ -2550,8 +2593,13 @@
       <c r="G32" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="11"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>123</v>
       </c>
@@ -2573,8 +2621,13 @@
       <c r="G33" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="11"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>123</v>
       </c>
@@ -2596,8 +2649,13 @@
       <c r="G34" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H34" s="11"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>123</v>
       </c>
@@ -2619,8 +2677,13 @@
       <c r="G35" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H35" s="11"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>123</v>
       </c>
@@ -2642,8 +2705,13 @@
       <c r="G36" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H36" s="11"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>123</v>
       </c>
@@ -2665,8 +2733,13 @@
       <c r="G37" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" s="11"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>123</v>
       </c>
@@ -2688,8 +2761,13 @@
       <c r="G38" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H38" s="11"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>123</v>
       </c>
@@ -2711,8 +2789,13 @@
       <c r="G39" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H39" s="11"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>123</v>
       </c>
@@ -2734,8 +2817,13 @@
       <c r="G40" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H40" s="11"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>123</v>
       </c>
@@ -2757,8 +2845,13 @@
       <c r="G41" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H41" s="11"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>123</v>
       </c>
@@ -2780,8 +2873,13 @@
       <c r="G42" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H42" s="11"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>123</v>
       </c>
@@ -2803,8 +2901,13 @@
       <c r="G43" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H43" s="11"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>123</v>
       </c>
@@ -2826,8 +2929,13 @@
       <c r="G44" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H44" s="11"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>123</v>
       </c>
@@ -2849,8 +2957,13 @@
       <c r="G45" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H45" s="11"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>123</v>
       </c>
@@ -2872,8 +2985,13 @@
       <c r="G46" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H46" s="11"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>123</v>
       </c>
@@ -2895,8 +3013,15 @@
       <c r="G47" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H47" s="11"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>123</v>
       </c>
@@ -2918,8 +3043,13 @@
       <c r="G48" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H48" s="11"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>123</v>
       </c>
@@ -2941,8 +3071,13 @@
       <c r="G49" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H49" s="11"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>123</v>
       </c>
@@ -2964,8 +3099,13 @@
       <c r="G50" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H50" s="11"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>123</v>
       </c>
@@ -2987,8 +3127,13 @@
       <c r="G51" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H51" s="11"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>123</v>
       </c>
@@ -3010,8 +3155,13 @@
       <c r="G52" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H52" s="11"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>123</v>
       </c>
@@ -3033,8 +3183,13 @@
       <c r="G53" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H53" s="11"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>123</v>
       </c>
@@ -3056,8 +3211,13 @@
       <c r="G54" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H54" s="11"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>123</v>
       </c>
@@ -3079,8 +3239,13 @@
       <c r="G55" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H55" s="11"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>123</v>
       </c>
@@ -3102,8 +3267,13 @@
       <c r="G56" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H56" s="11"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>123</v>
       </c>
@@ -3125,8 +3295,13 @@
       <c r="G57" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H57" s="11"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>123</v>
       </c>
@@ -3148,8 +3323,13 @@
       <c r="G58" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H58" s="11"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>123</v>
       </c>
@@ -3171,8 +3351,13 @@
       <c r="G59" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H59" s="11"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>123</v>
       </c>
@@ -3194,8 +3379,13 @@
       <c r="G60" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="H60" s="11"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>123</v>
       </c>
@@ -3217,8 +3407,13 @@
       <c r="G61" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H61" s="11"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>123</v>
       </c>
@@ -3240,8 +3435,13 @@
       <c r="G62" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H62" s="11"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>123</v>
       </c>
@@ -3263,8 +3463,13 @@
       <c r="G63" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H63" s="11"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>123</v>
       </c>
@@ -3286,8 +3491,13 @@
       <c r="G64" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H64" s="11"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>123</v>
       </c>
@@ -3309,8 +3519,13 @@
       <c r="G65" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H65" s="11"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>123</v>
       </c>
@@ -3332,8 +3547,13 @@
       <c r="G66" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H66" s="11"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>123</v>
       </c>
@@ -3355,8 +3575,13 @@
       <c r="G67" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H67" s="11"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>123</v>
       </c>
@@ -3378,8 +3603,13 @@
       <c r="G68" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H68" s="11"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>123</v>
       </c>
@@ -3401,8 +3631,13 @@
       <c r="G69" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H69" s="11"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>123</v>
       </c>
@@ -3424,8 +3659,13 @@
       <c r="G70" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H70" s="11"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>123</v>
       </c>
@@ -3447,8 +3687,13 @@
       <c r="G71" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H71" s="11"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>123</v>
       </c>
@@ -3470,8 +3715,13 @@
       <c r="G72" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H72" s="11"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>123</v>
       </c>
@@ -3493,8 +3743,13 @@
       <c r="G73" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H73" s="11"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>123</v>
       </c>
@@ -3516,8 +3771,13 @@
       <c r="G74" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H74" s="11"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>123</v>
       </c>
@@ -3539,8 +3799,13 @@
       <c r="G75" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H75" s="11"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>123</v>
       </c>
@@ -3562,8 +3827,13 @@
       <c r="G76" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H76" s="11"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>123</v>
       </c>
@@ -3585,8 +3855,13 @@
       <c r="G77" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H77" s="11"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>123</v>
       </c>
@@ -3608,8 +3883,13 @@
       <c r="G78" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H78" s="11"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>123</v>
       </c>
@@ -3631,8 +3911,13 @@
       <c r="G79" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H79" s="11"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>123</v>
       </c>
@@ -3654,8 +3939,13 @@
       <c r="G80" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H80" s="11"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>123</v>
       </c>
@@ -3677,8 +3967,13 @@
       <c r="G81" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H81" s="11"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>123</v>
       </c>
@@ -3700,8 +3995,13 @@
       <c r="G82" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H82" s="11"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>123</v>
       </c>
@@ -3723,8 +4023,13 @@
       <c r="G83" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H83" s="11"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>123</v>
       </c>
@@ -3746,8 +4051,13 @@
       <c r="G84" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>123</v>
       </c>
@@ -3769,8 +4079,13 @@
       <c r="G85" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>123</v>
       </c>
@@ -3792,8 +4107,13 @@
       <c r="G86" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>123</v>
       </c>
@@ -3815,8 +4135,13 @@
       <c r="G87" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>123</v>
       </c>
@@ -3838,8 +4163,13 @@
       <c r="G88" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>123</v>
       </c>
@@ -3861,8 +4191,13 @@
       <c r="G89" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>123</v>
       </c>
@@ -3884,8 +4219,13 @@
       <c r="G90" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>123</v>
       </c>
@@ -3907,8 +4247,13 @@
       <c r="G91" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>123</v>
       </c>
@@ -3930,8 +4275,13 @@
       <c r="G92" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>123</v>
       </c>
@@ -3953,8 +4303,13 @@
       <c r="G93" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>123</v>
       </c>
@@ -3976,8 +4331,13 @@
       <c r="G94" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>123</v>
       </c>
@@ -3999,8 +4359,13 @@
       <c r="G95" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>123</v>
       </c>
@@ -4022,8 +4387,13 @@
       <c r="G96" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>123</v>
       </c>
@@ -4045,8 +4415,13 @@
       <c r="G97" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>123</v>
       </c>
@@ -4068,8 +4443,13 @@
       <c r="G98" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>123</v>
       </c>
@@ -4091,8 +4471,13 @@
       <c r="G99" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>123</v>
       </c>
@@ -4114,8 +4499,13 @@
       <c r="G100" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>123</v>
       </c>
@@ -4137,8 +4527,15 @@
       <c r="G101" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H101" s="3"/>
+      <c r="I101" s="11">
+        <v>1</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>123</v>
       </c>
@@ -4160,8 +4557,13 @@
       <c r="G102" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H102" s="3"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>123</v>
       </c>
@@ -4183,8 +4585,13 @@
       <c r="G103" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H103" s="3"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>123</v>
       </c>
@@ -4206,8 +4613,13 @@
       <c r="G104" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H104" s="3"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>123</v>
       </c>
@@ -4229,8 +4641,13 @@
       <c r="G105" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="3"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>123</v>
       </c>
@@ -4252,8 +4669,13 @@
       <c r="G106" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="3"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>123</v>
       </c>
@@ -4275,8 +4697,13 @@
       <c r="G107" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="3"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>123</v>
       </c>
@@ -4298,8 +4725,13 @@
       <c r="G108" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H108" s="3"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>123</v>
       </c>
@@ -4321,8 +4753,13 @@
       <c r="G109" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H109" s="3"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>123</v>
       </c>
@@ -4344,8 +4781,13 @@
       <c r="G110" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H110" s="3"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>123</v>
       </c>
@@ -4367,8 +4809,13 @@
       <c r="G111" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H111" s="3"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>123</v>
       </c>
@@ -4390,8 +4837,13 @@
       <c r="G112" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="H112" s="3"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>123</v>
       </c>
@@ -4413,8 +4865,13 @@
       <c r="G113" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H113" s="3"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>123</v>
       </c>
@@ -4436,8 +4893,13 @@
       <c r="G114" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H114" s="3"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>123</v>
       </c>
@@ -4459,8 +4921,13 @@
       <c r="G115" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="3"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>123</v>
       </c>
@@ -4482,8 +4949,13 @@
       <c r="G116" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H116" s="3"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>123</v>
       </c>
@@ -4505,8 +4977,13 @@
       <c r="G117" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H117" s="3"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>123</v>
       </c>
@@ -4528,8 +5005,13 @@
       <c r="G118" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H118" s="3"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>123</v>
       </c>
@@ -4551,8 +5033,13 @@
       <c r="G119" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H119" s="3"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>123</v>
       </c>
@@ -4574,8 +5061,13 @@
       <c r="G120" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="3"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>123</v>
       </c>
@@ -4597,8 +5089,13 @@
       <c r="G121" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H121" s="3"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>123</v>
       </c>
@@ -4620,8 +5117,13 @@
       <c r="G122" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H122" s="3"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -4643,8 +5145,13 @@
       <c r="G123" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H123" s="3"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4666,8 +5173,13 @@
       <c r="G124" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H124" s="3"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -4689,8 +5201,13 @@
       <c r="G125" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H125" s="3"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -4712,8 +5229,13 @@
       <c r="G126" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H126" s="3"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>123</v>
       </c>
@@ -4735,8 +5257,13 @@
       <c r="G127" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H127" s="3"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>308</v>
       </c>
@@ -4759,7 +5286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>308</v>
       </c>
@@ -4782,7 +5309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>311</v>
       </c>
@@ -4805,7 +5332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>311</v>
       </c>
@@ -4828,7 +5355,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>311</v>
       </c>
@@ -4851,7 +5378,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>311</v>
       </c>
@@ -4874,7 +5401,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>311</v>
       </c>
@@ -4897,7 +5424,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>123</v>
       </c>
@@ -4919,8 +5446,13 @@
       <c r="G135" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H135" s="3"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>86</v>
       </c>
@@ -4943,7 +5475,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>86</v>
       </c>
@@ -4966,7 +5498,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>86</v>
       </c>
@@ -4989,7 +5521,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>86</v>
       </c>
@@ -5012,7 +5544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>86</v>
       </c>
@@ -5034,8 +5566,11 @@
       <c r="G140" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="I140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>86</v>
       </c>
@@ -5057,8 +5592,9 @@
       <c r="G141" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>86</v>
       </c>
@@ -5081,7 +5617,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>86</v>
       </c>
@@ -5104,7 +5640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>86</v>
       </c>
@@ -5127,7 +5663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>86</v>
       </c>
@@ -5150,7 +5686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>86</v>
       </c>
@@ -5173,7 +5709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>86</v>
       </c>
@@ -5196,7 +5732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>86</v>
       </c>
@@ -5219,7 +5755,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>86</v>
       </c>
@@ -5242,7 +5778,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>86</v>
       </c>
@@ -5265,7 +5801,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>86</v>
       </c>
@@ -5288,7 +5824,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>86</v>
       </c>
@@ -5311,7 +5847,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>86</v>
       </c>
@@ -5334,7 +5870,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>86</v>
       </c>
@@ -5357,7 +5893,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>86</v>
       </c>
@@ -5380,7 +5916,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>86</v>
       </c>
@@ -5403,7 +5939,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>86</v>
       </c>
@@ -5426,7 +5962,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>86</v>
       </c>
@@ -5449,7 +5985,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>86</v>
       </c>
@@ -5472,7 +6008,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>86</v>
       </c>
@@ -5495,7 +6031,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>86</v>
       </c>
@@ -5518,7 +6054,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>86</v>
       </c>
@@ -5541,7 +6077,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>86</v>
       </c>
@@ -5564,7 +6100,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>86</v>
       </c>
@@ -5587,7 +6123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>311</v>
       </c>
@@ -5610,7 +6146,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>311</v>
       </c>
@@ -5633,7 +6169,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>311</v>
       </c>
@@ -5656,7 +6192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>311</v>
       </c>
@@ -5679,7 +6215,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>311</v>
       </c>
@@ -5702,7 +6238,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>86</v>
       </c>
@@ -5725,7 +6261,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>86</v>
       </c>
@@ -5748,7 +6284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>86</v>
       </c>
@@ -5771,7 +6307,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>86</v>
       </c>
@@ -5794,7 +6330,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>86</v>
       </c>
@@ -5817,7 +6353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>306</v>
       </c>
@@ -5839,8 +6375,11 @@
       <c r="G175" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="I175" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>306</v>
       </c>
@@ -5862,8 +6401,9 @@
       <c r="G176" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="I176" s="10"/>
+    </row>
+    <row r="177" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>306</v>
       </c>
@@ -5885,8 +6425,9 @@
       <c r="G177" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I177" s="10"/>
+    </row>
+    <row r="178" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>306</v>
       </c>
@@ -5908,8 +6449,9 @@
       <c r="G178" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="I178" s="10"/>
+    </row>
+    <row r="179" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>306</v>
       </c>
@@ -5931,8 +6473,9 @@
       <c r="G179" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I179" s="10"/>
+    </row>
+    <row r="180" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>311</v>
       </c>
@@ -5954,8 +6497,10 @@
       <c r="G180" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H180" s="10"/>
+      <c r="J180" s="10"/>
+    </row>
+    <row r="181" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>311</v>
       </c>
@@ -5977,8 +6522,10 @@
       <c r="G181" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H181" s="10"/>
+      <c r="J181" s="10"/>
+    </row>
+    <row r="182" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>311</v>
       </c>
@@ -6000,8 +6547,10 @@
       <c r="G182" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H182" s="10"/>
+      <c r="J182" s="10"/>
+    </row>
+    <row r="183" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>306</v>
       </c>
@@ -6023,8 +6572,9 @@
       <c r="G183" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="I183" s="10"/>
+    </row>
+    <row r="184" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>311</v>
       </c>
@@ -6046,8 +6596,14 @@
       <c r="G184" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H184" s="10">
+        <v>1</v>
+      </c>
+      <c r="J184" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>311</v>
       </c>
@@ -6069,8 +6625,10 @@
       <c r="G185" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H185" s="10"/>
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>311</v>
       </c>
@@ -6092,8 +6650,10 @@
       <c r="G186" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H186" s="10"/>
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>311</v>
       </c>
@@ -6115,8 +6675,10 @@
       <c r="G187" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H187" s="10"/>
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>311</v>
       </c>
@@ -6138,8 +6700,10 @@
       <c r="G188" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H188" s="10"/>
+      <c r="J188" s="10"/>
+    </row>
+    <row r="189" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>311</v>
       </c>
@@ -6161,8 +6725,10 @@
       <c r="G189" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H189" s="10"/>
+      <c r="J189" s="10"/>
+    </row>
+    <row r="190" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>311</v>
       </c>
@@ -6184,8 +6750,10 @@
       <c r="G190" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H190" s="10"/>
+      <c r="J190" s="10"/>
+    </row>
+    <row r="191" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>311</v>
       </c>
@@ -6207,8 +6775,10 @@
       <c r="G191" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H191" s="10"/>
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>311</v>
       </c>
@@ -6230,8 +6800,10 @@
       <c r="G192" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H192" s="10"/>
+      <c r="J192" s="10"/>
+    </row>
+    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>311</v>
       </c>
@@ -6253,8 +6825,10 @@
       <c r="G193" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H193" s="10"/>
+      <c r="J193" s="10"/>
+    </row>
+    <row r="194" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>311</v>
       </c>
@@ -6276,8 +6850,10 @@
       <c r="G194" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H194" s="10"/>
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>311</v>
       </c>
@@ -6299,8 +6875,10 @@
       <c r="G195" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H195" s="10"/>
+      <c r="J195" s="10"/>
+    </row>
+    <row r="196" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>311</v>
       </c>
@@ -6322,8 +6900,10 @@
       <c r="G196" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H196" s="10"/>
+      <c r="J196" s="10"/>
+    </row>
+    <row r="197" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>311</v>
       </c>
@@ -6345,8 +6925,10 @@
       <c r="G197" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H197" s="10"/>
+      <c r="J197" s="10"/>
+    </row>
+    <row r="198" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>311</v>
       </c>
@@ -6368,8 +6950,10 @@
       <c r="G198" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H198" s="10"/>
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>311</v>
       </c>
@@ -6391,8 +6975,10 @@
       <c r="G199" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H199" s="10"/>
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>311</v>
       </c>
@@ -6414,8 +7000,10 @@
       <c r="G200" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H200" s="10"/>
+      <c r="J200" s="10"/>
+    </row>
+    <row r="201" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>311</v>
       </c>
@@ -6437,8 +7025,10 @@
       <c r="G201" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H201" s="10"/>
+      <c r="J201" s="10"/>
+    </row>
+    <row r="202" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>311</v>
       </c>
@@ -6460,8 +7050,10 @@
       <c r="G202" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H202" s="10"/>
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>311</v>
       </c>
@@ -6483,8 +7075,10 @@
       <c r="G203" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H203" s="10"/>
+      <c r="J203" s="10"/>
+    </row>
+    <row r="204" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>311</v>
       </c>
@@ -6506,8 +7100,9 @@
       <c r="G204" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>311</v>
       </c>
@@ -6529,8 +7124,9 @@
       <c r="G205" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="J205" s="10"/>
+    </row>
+    <row r="206" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>311</v>
       </c>
@@ -6552,8 +7148,9 @@
       <c r="G206" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>311</v>
       </c>
@@ -6575,8 +7172,9 @@
       <c r="G207" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J207" s="10"/>
+    </row>
+    <row r="208" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>311</v>
       </c>
@@ -6598,8 +7196,9 @@
       <c r="G208" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J208" s="10"/>
+    </row>
+    <row r="209" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>311</v>
       </c>
@@ -6621,8 +7220,9 @@
       <c r="G209" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J209" s="9"/>
+    </row>
+    <row r="210" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>311</v>
       </c>
@@ -6645,7 +7245,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>311</v>
       </c>
@@ -6668,7 +7268,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>311</v>
       </c>
@@ -6691,7 +7291,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>311</v>
       </c>
@@ -6714,7 +7314,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>311</v>
       </c>
@@ -6737,7 +7337,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>311</v>
       </c>
@@ -6760,7 +7360,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>311</v>
       </c>
@@ -6783,7 +7383,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>311</v>
       </c>
@@ -6806,7 +7406,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>311</v>
       </c>
@@ -6829,7 +7429,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>311</v>
       </c>
@@ -6852,7 +7452,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>311</v>
       </c>
@@ -6875,7 +7475,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>311</v>
       </c>
@@ -6898,7 +7498,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>311</v>
       </c>
@@ -6921,7 +7521,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>311</v>
       </c>
@@ -6944,7 +7544,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>311</v>
       </c>
@@ -6967,7 +7567,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>88</v>
       </c>
@@ -6990,7 +7590,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>86</v>
       </c>
@@ -7013,7 +7613,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>296</v>
       </c>
@@ -7036,7 +7636,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>299</v>
       </c>
@@ -7058,8 +7658,17 @@
       <c r="G228" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H228" s="10">
+        <v>1</v>
+      </c>
+      <c r="J228" s="10">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>299</v>
       </c>
@@ -7081,8 +7690,10 @@
       <c r="G229" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H229" s="10"/>
+      <c r="J229" s="10"/>
+    </row>
+    <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>299</v>
       </c>
@@ -7104,8 +7715,10 @@
       <c r="G230" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H230" s="10"/>
+      <c r="J230" s="10"/>
+    </row>
+    <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>299</v>
       </c>
@@ -7127,8 +7740,10 @@
       <c r="G231" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H231" s="10"/>
+      <c r="J231" s="10"/>
+    </row>
+    <row r="232" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>299</v>
       </c>
@@ -7150,8 +7765,10 @@
       <c r="G232" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H232" s="10"/>
+      <c r="J232" s="10"/>
+    </row>
+    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>299</v>
       </c>
@@ -7173,8 +7790,10 @@
       <c r="G233" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H233" s="10"/>
+      <c r="J233" s="10"/>
+    </row>
+    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>299</v>
       </c>
@@ -7196,8 +7815,10 @@
       <c r="G234" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H234" s="10"/>
+      <c r="J234" s="10"/>
+    </row>
+    <row r="235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>299</v>
       </c>
@@ -7219,8 +7840,10 @@
       <c r="G235" s="8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="10"/>
+      <c r="J235" s="10"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>299</v>
       </c>
@@ -7242,8 +7865,10 @@
       <c r="G236" s="8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H236" s="10"/>
+      <c r="J236" s="10"/>
+    </row>
+    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>299</v>
       </c>
@@ -7265,8 +7890,10 @@
       <c r="G237" s="8" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H237" s="10"/>
+      <c r="J237" s="10"/>
+    </row>
+    <row r="238" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>299</v>
       </c>
@@ -7288,8 +7915,10 @@
       <c r="G238" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H238" s="10"/>
+      <c r="J238" s="10"/>
+    </row>
+    <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>299</v>
       </c>
@@ -7311,8 +7940,10 @@
       <c r="G239" s="5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H239" s="10"/>
+      <c r="J239" s="10"/>
+    </row>
+    <row r="240" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>299</v>
       </c>
@@ -7334,8 +7965,10 @@
       <c r="G240" s="5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H240" s="10"/>
+      <c r="J240" s="10"/>
+    </row>
+    <row r="241" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>299</v>
       </c>
@@ -7357,8 +7990,10 @@
       <c r="G241" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H241" s="10"/>
+      <c r="J241" s="10"/>
+    </row>
+    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>299</v>
       </c>
@@ -7380,8 +8015,10 @@
       <c r="G242" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H242" s="10"/>
+      <c r="J242" s="10"/>
+    </row>
+    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>299</v>
       </c>
@@ -7403,8 +8040,10 @@
       <c r="G243" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H243" s="10"/>
+      <c r="J243" s="10"/>
+    </row>
+    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>299</v>
       </c>
@@ -7426,8 +8065,10 @@
       <c r="G244" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H244" s="10"/>
+      <c r="J244" s="10"/>
+    </row>
+    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>299</v>
       </c>
@@ -7449,8 +8090,10 @@
       <c r="G245" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H245" s="10"/>
+      <c r="J245" s="10"/>
+    </row>
+    <row r="246" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>299</v>
       </c>
@@ -7472,8 +8115,10 @@
       <c r="G246" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H246" s="10"/>
+      <c r="J246" s="10"/>
+    </row>
+    <row r="247" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>299</v>
       </c>
@@ -7495,8 +8140,10 @@
       <c r="G247" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="10"/>
+      <c r="J247" s="10"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>299</v>
       </c>
@@ -7518,8 +8165,10 @@
       <c r="G248" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H248" s="10"/>
+      <c r="J248" s="10"/>
+    </row>
+    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>299</v>
       </c>
@@ -7541,8 +8190,10 @@
       <c r="G249" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H249" s="10"/>
+      <c r="J249" s="10"/>
+    </row>
+    <row r="250" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>299</v>
       </c>
@@ -7564,8 +8215,10 @@
       <c r="G250" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H250" s="10"/>
+      <c r="J250" s="10"/>
+    </row>
+    <row r="251" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>299</v>
       </c>
@@ -7587,8 +8240,10 @@
       <c r="G251" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H251" s="10"/>
+      <c r="J251" s="10"/>
+    </row>
+    <row r="252" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>299</v>
       </c>
@@ -7610,8 +8265,10 @@
       <c r="G252" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H252" s="10"/>
+      <c r="J252" s="10"/>
+    </row>
+    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>299</v>
       </c>
@@ -7633,8 +8290,10 @@
       <c r="G253" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="10"/>
+      <c r="J253" s="10"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>299</v>
       </c>
@@ -7656,8 +8315,10 @@
       <c r="G254" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H254" s="10"/>
+      <c r="J254" s="10"/>
+    </row>
+    <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>299</v>
       </c>
@@ -7679,8 +8340,10 @@
       <c r="G255" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="10"/>
+      <c r="J255" s="10"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>299</v>
       </c>
@@ -7702,8 +8365,10 @@
       <c r="G256" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H256" s="10"/>
+      <c r="J256" s="10"/>
+    </row>
+    <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>299</v>
       </c>
@@ -7725,8 +8390,10 @@
       <c r="G257" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H257" s="10"/>
+      <c r="J257" s="10"/>
+    </row>
+    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>299</v>
       </c>
@@ -7748,8 +8415,10 @@
       <c r="G258" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H258" s="10"/>
+      <c r="J258" s="10"/>
+    </row>
+    <row r="259" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>299</v>
       </c>
@@ -7771,8 +8440,10 @@
       <c r="G259" s="5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H259" s="10"/>
+      <c r="J259" s="10"/>
+    </row>
+    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>299</v>
       </c>
@@ -7794,8 +8465,10 @@
       <c r="G260" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H260" s="10"/>
+      <c r="J260" s="10"/>
+    </row>
+    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>299</v>
       </c>
@@ -7817,8 +8490,10 @@
       <c r="G261" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H261" s="10"/>
+      <c r="J261" s="10"/>
+    </row>
+    <row r="262" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>299</v>
       </c>
@@ -7840,8 +8515,10 @@
       <c r="G262" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H262" s="10"/>
+      <c r="J262" s="10"/>
+    </row>
+    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>299</v>
       </c>
@@ -7863,8 +8540,10 @@
       <c r="G263" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H263" s="10"/>
+      <c r="J263" s="10"/>
+    </row>
+    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>299</v>
       </c>
@@ -7886,8 +8565,10 @@
       <c r="G264" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H264" s="10"/>
+      <c r="J264" s="10"/>
+    </row>
+    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>299</v>
       </c>
@@ -7909,8 +8590,10 @@
       <c r="G265" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H265" s="10"/>
+      <c r="J265" s="10"/>
+    </row>
+    <row r="266" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>299</v>
       </c>
@@ -7932,8 +8615,10 @@
       <c r="G266" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H266" s="10"/>
+      <c r="J266" s="10"/>
+    </row>
+    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>299</v>
       </c>
@@ -7955,8 +8640,10 @@
       <c r="G267" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H267" s="10"/>
+      <c r="J267" s="10"/>
+    </row>
+    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>299</v>
       </c>
@@ -7978,8 +8665,10 @@
       <c r="G268" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H268" s="10"/>
+      <c r="J268" s="10"/>
+    </row>
+    <row r="269" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>299</v>
       </c>
@@ -8001,8 +8690,10 @@
       <c r="G269" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H269" s="10"/>
+      <c r="J269" s="10"/>
+    </row>
+    <row r="270" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>299</v>
       </c>
@@ -8024,8 +8715,10 @@
       <c r="G270" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H270" s="10"/>
+      <c r="J270" s="10"/>
+    </row>
+    <row r="271" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>299</v>
       </c>
@@ -8047,8 +8740,10 @@
       <c r="G271" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H271" s="10"/>
+      <c r="J271" s="10"/>
+    </row>
+    <row r="272" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>299</v>
       </c>
@@ -8070,8 +8765,10 @@
       <c r="G272" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="10"/>
+      <c r="J272" s="10"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>299</v>
       </c>
@@ -8093,8 +8790,10 @@
       <c r="G273" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H273" s="10"/>
+      <c r="J273" s="10"/>
+    </row>
+    <row r="274" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>299</v>
       </c>
@@ -8116,8 +8815,10 @@
       <c r="G274" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="10"/>
+      <c r="J274" s="10"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>299</v>
       </c>
@@ -8139,8 +8840,10 @@
       <c r="G275" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H275" s="10"/>
+      <c r="J275" s="10"/>
+    </row>
+    <row r="276" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>299</v>
       </c>
@@ -8162,8 +8865,10 @@
       <c r="G276" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H276" s="10"/>
+      <c r="J276" s="10"/>
+    </row>
+    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>299</v>
       </c>
@@ -8185,8 +8890,10 @@
       <c r="G277" s="5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H277" s="10"/>
+      <c r="J277" s="10"/>
+    </row>
+    <row r="278" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>299</v>
       </c>
@@ -8208,8 +8915,10 @@
       <c r="G278" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H278" s="10"/>
+      <c r="J278" s="10"/>
+    </row>
+    <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>299</v>
       </c>
@@ -8231,8 +8940,10 @@
       <c r="G279" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H279" s="10"/>
+      <c r="J279" s="10"/>
+    </row>
+    <row r="280" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>299</v>
       </c>
@@ -8254,8 +8965,10 @@
       <c r="G280" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H280" s="10"/>
+      <c r="J280" s="10"/>
+    </row>
+    <row r="281" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>299</v>
       </c>
@@ -8277,8 +8990,10 @@
       <c r="G281" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="10"/>
+      <c r="J281" s="10"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>299</v>
       </c>
@@ -8300,8 +9015,10 @@
       <c r="G282" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H282" s="10"/>
+      <c r="J282" s="10"/>
+    </row>
+    <row r="283" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>299</v>
       </c>
@@ -8323,8 +9040,10 @@
       <c r="G283" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H283" s="10"/>
+      <c r="J283" s="10"/>
+    </row>
+    <row r="284" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>299</v>
       </c>
@@ -8346,8 +9065,10 @@
       <c r="G284" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H284" s="10"/>
+      <c r="J284" s="10"/>
+    </row>
+    <row r="285" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>299</v>
       </c>
@@ -8369,8 +9090,10 @@
       <c r="G285" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H285" s="10"/>
+      <c r="J285" s="10"/>
+    </row>
+    <row r="286" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>299</v>
       </c>
@@ -8392,8 +9115,10 @@
       <c r="G286" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="10"/>
+      <c r="J286" s="10"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>299</v>
       </c>
@@ -8415,8 +9140,10 @@
       <c r="G287" s="8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H287" s="10"/>
+      <c r="J287" s="10"/>
+    </row>
+    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>299</v>
       </c>
@@ -8438,8 +9165,10 @@
       <c r="G288" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="10"/>
+      <c r="J288" s="10"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>299</v>
       </c>
@@ -8461,8 +9190,10 @@
       <c r="G289" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H289" s="10"/>
+      <c r="J289" s="10"/>
+    </row>
+    <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>299</v>
       </c>
@@ -8484,8 +9215,10 @@
       <c r="G290" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="10"/>
+      <c r="J290" s="10"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>299</v>
       </c>
@@ -8507,8 +9240,10 @@
       <c r="G291" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="10"/>
+      <c r="J291" s="10"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>299</v>
       </c>
@@ -8530,8 +9265,10 @@
       <c r="G292" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H292" s="10"/>
+      <c r="J292" s="10"/>
+    </row>
+    <row r="293" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>299</v>
       </c>
@@ -8553,8 +9290,10 @@
       <c r="G293" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H293" s="10"/>
+      <c r="J293" s="10"/>
+    </row>
+    <row r="294" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>299</v>
       </c>
@@ -8576,8 +9315,10 @@
       <c r="G294" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H294" s="10"/>
+      <c r="J294" s="10"/>
+    </row>
+    <row r="295" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>299</v>
       </c>
@@ -8599,8 +9340,10 @@
       <c r="G295" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="10"/>
+      <c r="J295" s="10"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>299</v>
       </c>
@@ -8622,8 +9365,10 @@
       <c r="G296" s="5" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H296" s="10"/>
+      <c r="J296" s="10"/>
+    </row>
+    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>299</v>
       </c>
@@ -8645,8 +9390,10 @@
       <c r="G297" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H297" s="10"/>
+      <c r="J297" s="10"/>
+    </row>
+    <row r="298" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>299</v>
       </c>
@@ -8668,8 +9415,10 @@
       <c r="G298" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H298" s="10"/>
+      <c r="J298" s="10"/>
+    </row>
+    <row r="299" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>299</v>
       </c>
@@ -8691,8 +9440,10 @@
       <c r="G299" s="8" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H299" s="10"/>
+      <c r="J299" s="10"/>
+    </row>
+    <row r="300" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -8714,8 +9465,10 @@
       <c r="G300" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="10"/>
+      <c r="J300" s="10"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>299</v>
       </c>
@@ -8737,8 +9490,10 @@
       <c r="G301" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H301" s="10"/>
+      <c r="J301" s="10"/>
+    </row>
+    <row r="302" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>299</v>
       </c>
@@ -8760,8 +9515,10 @@
       <c r="G302" s="8" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="10"/>
+      <c r="J302" s="10"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>299</v>
       </c>
@@ -8783,8 +9540,10 @@
       <c r="G303" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H303" s="10"/>
+      <c r="J303" s="10"/>
+    </row>
+    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>299</v>
       </c>
@@ -8806,8 +9565,10 @@
       <c r="G304" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H304" s="10"/>
+      <c r="J304" s="10"/>
+    </row>
+    <row r="305" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>299</v>
       </c>
@@ -8829,8 +9590,10 @@
       <c r="G305" s="8" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H305" s="10"/>
+      <c r="J305" s="10"/>
+    </row>
+    <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>299</v>
       </c>
@@ -8852,8 +9615,10 @@
       <c r="G306" s="5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H306" s="10"/>
+      <c r="J306" s="10"/>
+    </row>
+    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>299</v>
       </c>
@@ -8875,8 +9640,10 @@
       <c r="G307" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H307" s="10"/>
+      <c r="J307" s="10"/>
+    </row>
+    <row r="308" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>299</v>
       </c>
@@ -8898,8 +9665,10 @@
       <c r="G308" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H308" s="10"/>
+      <c r="J308" s="10"/>
+    </row>
+    <row r="309" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>299</v>
       </c>
@@ -8921,8 +9690,9 @@
       <c r="G309" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J309" s="10"/>
+    </row>
+    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>299</v>
       </c>
@@ -8944,8 +9714,9 @@
       <c r="G310" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J310" s="10"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>299</v>
       </c>
@@ -8967,8 +9738,9 @@
       <c r="G311" s="5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J311" s="10"/>
+    </row>
+    <row r="312" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>299</v>
       </c>
@@ -8990,8 +9762,9 @@
       <c r="G312" s="5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J312" s="10"/>
+    </row>
+    <row r="313" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>299</v>
       </c>
@@ -9013,8 +9786,9 @@
       <c r="G313" s="5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J313" s="10"/>
+    </row>
+    <row r="314" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>299</v>
       </c>
@@ -9036,8 +9810,9 @@
       <c r="G314" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J314" s="10"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>299</v>
       </c>
@@ -9059,8 +9834,9 @@
       <c r="G315" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J315" s="10"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>299</v>
       </c>
@@ -9082,8 +9858,9 @@
       <c r="G316" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="J316" s="10"/>
+    </row>
+    <row r="317" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>299</v>
       </c>
@@ -9105,8 +9882,9 @@
       <c r="G317" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J317" s="10"/>
+    </row>
+    <row r="318" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>299</v>
       </c>
@@ -9128,8 +9906,9 @@
       <c r="G318" s="8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J318" s="10"/>
+    </row>
+    <row r="319" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>299</v>
       </c>
@@ -9151,8 +9930,9 @@
       <c r="G319" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J319" s="10"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>299</v>
       </c>
@@ -9174,8 +9954,9 @@
       <c r="G320" s="8" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J320" s="10"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>299</v>
       </c>
@@ -9197,8 +9978,9 @@
       <c r="G321" s="8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="J321" s="10"/>
+    </row>
+    <row r="322" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>299</v>
       </c>
@@ -9220,8 +10002,9 @@
       <c r="G322" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="J322" s="10"/>
+    </row>
+    <row r="323" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>299</v>
       </c>
@@ -9243,8 +10026,9 @@
       <c r="G323" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J323" s="10"/>
+    </row>
+    <row r="324" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>299</v>
       </c>
@@ -9266,8 +10050,9 @@
       <c r="G324" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J324" s="10"/>
+    </row>
+    <row r="325" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>299</v>
       </c>
@@ -9289,8 +10074,9 @@
       <c r="G325" s="5" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J325" s="10"/>
+    </row>
+    <row r="326" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>299</v>
       </c>
@@ -9312,8 +10098,9 @@
       <c r="G326" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="J326" s="10"/>
+    </row>
+    <row r="327" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>311</v>
       </c>
@@ -9336,7 +10123,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>311</v>
       </c>
@@ -9359,7 +10146,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>311</v>
       </c>
@@ -9382,7 +10169,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>311</v>
       </c>
@@ -9405,7 +10192,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>311</v>
       </c>
@@ -9428,7 +10215,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>311</v>
       </c>
@@ -9451,7 +10238,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>311</v>
       </c>
@@ -9474,7 +10261,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>311</v>
       </c>
@@ -9497,7 +10284,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>311</v>
       </c>
@@ -9520,7 +10307,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>299</v>
       </c>
@@ -9542,8 +10329,9 @@
       <c r="G336" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J336" s="10"/>
+    </row>
+    <row r="337" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>299</v>
       </c>
@@ -9565,8 +10353,9 @@
       <c r="G337" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J337" s="10"/>
+    </row>
+    <row r="338" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>299</v>
       </c>
@@ -9588,8 +10377,9 @@
       <c r="G338" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J338" s="10"/>
+    </row>
+    <row r="339" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>299</v>
       </c>
@@ -9611,8 +10401,9 @@
       <c r="G339" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J339" s="10"/>
+    </row>
+    <row r="340" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>299</v>
       </c>
@@ -9634,8 +10425,9 @@
       <c r="G340" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J340" s="10"/>
+    </row>
+    <row r="341" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>299</v>
       </c>
@@ -9657,8 +10449,9 @@
       <c r="G341" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J341" s="10"/>
+    </row>
+    <row r="342" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>299</v>
       </c>
@@ -9680,8 +10473,9 @@
       <c r="G342" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J342" s="10"/>
+    </row>
+    <row r="343" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>299</v>
       </c>
@@ -9703,8 +10497,9 @@
       <c r="G343" s="5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J343" s="10"/>
+    </row>
+    <row r="344" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>299</v>
       </c>
@@ -9726,8 +10521,9 @@
       <c r="G344" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J344" s="10"/>
+    </row>
+    <row r="345" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>299</v>
       </c>
@@ -9749,8 +10545,9 @@
       <c r="G345" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J345" s="10"/>
+    </row>
+    <row r="346" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>299</v>
       </c>
@@ -9772,8 +10569,9 @@
       <c r="G346" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J346" s="10"/>
+    </row>
+    <row r="347" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>299</v>
       </c>
@@ -9795,8 +10593,9 @@
       <c r="G347" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J347" s="10"/>
+    </row>
+    <row r="348" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>299</v>
       </c>
@@ -9818,8 +10617,9 @@
       <c r="G348" s="8" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J348" s="10"/>
+    </row>
+    <row r="349" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>299</v>
       </c>
@@ -9841,8 +10641,9 @@
       <c r="G349" s="8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J349" s="10"/>
+    </row>
+    <row r="350" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>299</v>
       </c>
@@ -9864,8 +10665,9 @@
       <c r="G350" s="8" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J350" s="10"/>
+    </row>
+    <row r="351" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>299</v>
       </c>
@@ -9887,8 +10689,9 @@
       <c r="G351" s="8" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J351" s="10"/>
+    </row>
+    <row r="352" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>299</v>
       </c>
@@ -9910,8 +10713,9 @@
       <c r="G352" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J352" s="10"/>
+    </row>
+    <row r="353" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>299</v>
       </c>
@@ -9933,8 +10737,9 @@
       <c r="G353" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J353" s="10"/>
+    </row>
+    <row r="354" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>299</v>
       </c>
@@ -9956,8 +10761,9 @@
       <c r="G354" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J354" s="10"/>
+    </row>
+    <row r="355" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>299</v>
       </c>
@@ -9979,8 +10785,9 @@
       <c r="G355" s="8" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="J355" s="10"/>
+    </row>
+    <row r="356" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>299</v>
       </c>
@@ -10002,8 +10809,9 @@
       <c r="G356" s="8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J356" s="10"/>
+    </row>
+    <row r="357" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>299</v>
       </c>
@@ -10025,8 +10833,9 @@
       <c r="G357" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J357" s="10"/>
+    </row>
+    <row r="358" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>299</v>
       </c>
@@ -10048,8 +10857,9 @@
       <c r="G358" s="8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J358" s="10"/>
+    </row>
+    <row r="359" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>299</v>
       </c>
@@ -10071,8 +10881,9 @@
       <c r="G359" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J359" s="10"/>
+    </row>
+    <row r="360" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>299</v>
       </c>
@@ -10094,8 +10905,9 @@
       <c r="G360" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J360" s="10"/>
+    </row>
+    <row r="361" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>299</v>
       </c>
@@ -10117,8 +10929,9 @@
       <c r="G361" s="8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J361" s="10"/>
+    </row>
+    <row r="362" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>299</v>
       </c>
@@ -10140,8 +10953,9 @@
       <c r="G362" s="8" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J362" s="10"/>
+    </row>
+    <row r="363" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>299</v>
       </c>
@@ -10163,8 +10977,9 @@
       <c r="G363" s="8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J363" s="10"/>
+    </row>
+    <row r="364" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>299</v>
       </c>
@@ -10186,8 +11001,9 @@
       <c r="G364" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J364" s="10"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>299</v>
       </c>
@@ -10209,8 +11025,9 @@
       <c r="G365" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J365" s="10"/>
+    </row>
+    <row r="366" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>299</v>
       </c>
@@ -10232,8 +11049,9 @@
       <c r="G366" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J366" s="10"/>
+    </row>
+    <row r="367" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>299</v>
       </c>
@@ -10255,8 +11073,9 @@
       <c r="G367" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J367" s="10"/>
+    </row>
+    <row r="368" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>299</v>
       </c>
@@ -10278,8 +11097,9 @@
       <c r="G368" s="8" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J368" s="10"/>
+    </row>
+    <row r="369" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>299</v>
       </c>
@@ -10301,8 +11121,9 @@
       <c r="G369" s="8" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J369" s="10"/>
+    </row>
+    <row r="370" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>299</v>
       </c>
@@ -10324,8 +11145,9 @@
       <c r="G370" s="8" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J370" s="10"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>299</v>
       </c>
@@ -10347,8 +11169,9 @@
       <c r="G371" s="8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="J371" s="10"/>
+    </row>
+    <row r="372" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>299</v>
       </c>
@@ -10370,8 +11193,9 @@
       <c r="G372" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J372" s="10"/>
+    </row>
+    <row r="373" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>299</v>
       </c>
@@ -10393,8 +11217,9 @@
       <c r="G373" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J373" s="10"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>299</v>
       </c>
@@ -10416,8 +11241,9 @@
       <c r="G374" s="8" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J374" s="10"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>299</v>
       </c>
@@ -10439,8 +11265,9 @@
       <c r="G375" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J375" s="10"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>299</v>
       </c>
@@ -10462,8 +11289,9 @@
       <c r="G376" s="8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J376" s="10"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>299</v>
       </c>
@@ -10485,8 +11313,9 @@
       <c r="G377" s="8" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J377" s="10"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>299</v>
       </c>
@@ -10508,8 +11337,9 @@
       <c r="G378" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J378" s="10"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>299</v>
       </c>
@@ -10531,8 +11361,9 @@
       <c r="G379" s="8" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="J379" s="10"/>
+    </row>
+    <row r="380" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>299</v>
       </c>
@@ -10554,8 +11385,9 @@
       <c r="G380" s="8" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J380" s="10"/>
+    </row>
+    <row r="381" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>299</v>
       </c>
@@ -10577,8 +11409,9 @@
       <c r="G381" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J381" s="10"/>
+    </row>
+    <row r="382" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>299</v>
       </c>
@@ -10600,8 +11433,9 @@
       <c r="G382" s="5" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J382" s="10"/>
+    </row>
+    <row r="383" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>299</v>
       </c>
@@ -10623,8 +11457,9 @@
       <c r="G383" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J383" s="10"/>
+    </row>
+    <row r="384" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>299</v>
       </c>
@@ -10646,8 +11481,9 @@
       <c r="G384" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J384" s="10"/>
+    </row>
+    <row r="385" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>299</v>
       </c>
@@ -10669,8 +11505,9 @@
       <c r="G385" s="5" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J385" s="10"/>
+    </row>
+    <row r="386" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>349</v>
       </c>
@@ -10693,7 +11530,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>299</v>
       </c>
@@ -10715,8 +11552,9 @@
       <c r="G387" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J387" s="10"/>
+    </row>
+    <row r="388" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>299</v>
       </c>
@@ -10738,8 +11576,9 @@
       <c r="G388" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J388" s="10"/>
+    </row>
+    <row r="389" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>299</v>
       </c>
@@ -10761,8 +11600,9 @@
       <c r="G389" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="J389" s="10"/>
+    </row>
+    <row r="390" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>299</v>
       </c>
@@ -10784,8 +11624,9 @@
       <c r="G390" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J390" s="10"/>
+    </row>
+    <row r="391" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>86</v>
       </c>
@@ -10808,7 +11649,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>86</v>
       </c>
@@ -10831,7 +11672,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>86</v>
       </c>
@@ -10854,7 +11695,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>86</v>
       </c>
@@ -10877,7 +11718,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>233</v>
       </c>
@@ -10900,7 +11741,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>233</v>
       </c>
@@ -10923,7 +11764,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>86</v>
       </c>
@@ -10946,7 +11787,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>86</v>
       </c>
@@ -10969,7 +11810,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>86</v>
       </c>
@@ -10992,7 +11833,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>86</v>
       </c>
@@ -11015,7 +11856,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>86</v>
       </c>
@@ -11038,7 +11879,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>86</v>
       </c>
@@ -11061,7 +11902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>86</v>
       </c>
@@ -11084,7 +11925,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>86</v>
       </c>
@@ -11107,7 +11948,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>86</v>
       </c>
@@ -11130,7 +11971,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>86</v>
       </c>
@@ -11153,7 +11994,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>86</v>
       </c>
@@ -11176,7 +12017,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>86</v>
       </c>
@@ -11199,7 +12040,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>86</v>
       </c>
@@ -11222,7 +12063,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>86</v>
       </c>
@@ -11245,7 +12086,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>86</v>
       </c>
@@ -11268,7 +12109,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>86</v>
       </c>
@@ -11292,7 +12133,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G412"/>
+  <autoFilter ref="A1:G412">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="State Regulatory Compliance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
@@ -1809,10 +1809,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L412"/>
+  <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="L385" sqref="L385"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="M373" sqref="M373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,7 +3016,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3">
+      <c r="K47" s="11">
         <v>1</v>
       </c>
       <c r="L47" s="3"/>
@@ -3046,7 +3046,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3102,7 +3102,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="11"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="11"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -5663,7 +5663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>86</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>86</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>86</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>86</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>86</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>86</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>86</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>86</v>
       </c>
@@ -5846,8 +5846,9 @@
       <c r="G152" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K152" s="10"/>
+    </row>
+    <row r="153" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>86</v>
       </c>
@@ -5869,8 +5870,9 @@
       <c r="G153" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>86</v>
       </c>
@@ -5892,8 +5894,9 @@
       <c r="G154" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K154" s="10"/>
+    </row>
+    <row r="155" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>86</v>
       </c>
@@ -5915,8 +5918,9 @@
       <c r="G155" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>86</v>
       </c>
@@ -5938,8 +5942,9 @@
       <c r="G156" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>86</v>
       </c>
@@ -5961,8 +5966,9 @@
       <c r="G157" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>86</v>
       </c>
@@ -5984,8 +5990,9 @@
       <c r="G158" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K158" s="10"/>
+    </row>
+    <row r="159" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>86</v>
       </c>
@@ -6007,8 +6014,9 @@
       <c r="G159" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K159" s="10"/>
+    </row>
+    <row r="160" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>86</v>
       </c>
@@ -6030,8 +6038,9 @@
       <c r="G160" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K160" s="10"/>
+    </row>
+    <row r="161" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>86</v>
       </c>
@@ -6053,8 +6062,9 @@
       <c r="G161" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K161" s="10"/>
+    </row>
+    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>86</v>
       </c>
@@ -6076,8 +6086,9 @@
       <c r="G162" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K162" s="10"/>
+    </row>
+    <row r="163" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>86</v>
       </c>
@@ -6099,8 +6110,9 @@
       <c r="G163" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K163" s="10"/>
+    </row>
+    <row r="164" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>86</v>
       </c>
@@ -6122,8 +6134,9 @@
       <c r="G164" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>311</v>
       </c>
@@ -6146,7 +6159,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>311</v>
       </c>
@@ -6169,7 +6182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>311</v>
       </c>
@@ -6192,7 +6205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>311</v>
       </c>
@@ -6215,7 +6228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>311</v>
       </c>
@@ -6238,7 +6251,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>86</v>
       </c>
@@ -6260,8 +6273,9 @@
       <c r="G170" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K170" s="10"/>
+    </row>
+    <row r="171" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>86</v>
       </c>
@@ -6283,8 +6297,9 @@
       <c r="G171" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K171" s="10"/>
+    </row>
+    <row r="172" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>86</v>
       </c>
@@ -6306,8 +6321,9 @@
       <c r="G172" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K172" s="10"/>
+    </row>
+    <row r="173" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>86</v>
       </c>
@@ -6330,7 +6346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>86</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>306</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>306</v>
       </c>
@@ -9568,7 +9584,7 @@
       <c r="H304" s="10"/>
       <c r="J304" s="10"/>
     </row>
-    <row r="305" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>299</v>
       </c>
@@ -9593,7 +9609,7 @@
       <c r="H305" s="10"/>
       <c r="J305" s="10"/>
     </row>
-    <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>299</v>
       </c>
@@ -9618,7 +9634,7 @@
       <c r="H306" s="10"/>
       <c r="J306" s="10"/>
     </row>
-    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>299</v>
       </c>
@@ -9643,7 +9659,7 @@
       <c r="H307" s="10"/>
       <c r="J307" s="10"/>
     </row>
-    <row r="308" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>299</v>
       </c>
@@ -9668,7 +9684,7 @@
       <c r="H308" s="10"/>
       <c r="J308" s="10"/>
     </row>
-    <row r="309" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>299</v>
       </c>
@@ -9691,8 +9707,9 @@
         <v>354</v>
       </c>
       <c r="J309" s="10"/>
-    </row>
-    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K309" s="10"/>
+    </row>
+    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>299</v>
       </c>
@@ -9715,8 +9732,9 @@
         <v>355</v>
       </c>
       <c r="J310" s="10"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K310" s="10"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>299</v>
       </c>
@@ -9739,8 +9757,9 @@
         <v>357</v>
       </c>
       <c r="J311" s="10"/>
-    </row>
-    <row r="312" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K311" s="10"/>
+    </row>
+    <row r="312" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>299</v>
       </c>
@@ -9763,8 +9782,9 @@
         <v>358</v>
       </c>
       <c r="J312" s="10"/>
-    </row>
-    <row r="313" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K312" s="10"/>
+    </row>
+    <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>299</v>
       </c>
@@ -9787,8 +9807,9 @@
         <v>359</v>
       </c>
       <c r="J313" s="10"/>
-    </row>
-    <row r="314" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K313" s="10"/>
+    </row>
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>299</v>
       </c>
@@ -9811,8 +9832,9 @@
         <v>309</v>
       </c>
       <c r="J314" s="10"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K314" s="10"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>299</v>
       </c>
@@ -9835,8 +9857,9 @@
         <v>360</v>
       </c>
       <c r="J315" s="10"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K315" s="10"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>299</v>
       </c>
@@ -9859,8 +9882,9 @@
         <v>42</v>
       </c>
       <c r="J316" s="10"/>
-    </row>
-    <row r="317" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K316" s="10"/>
+    </row>
+    <row r="317" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>299</v>
       </c>
@@ -9883,8 +9907,9 @@
         <v>362</v>
       </c>
       <c r="J317" s="10"/>
-    </row>
-    <row r="318" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K317" s="10"/>
+    </row>
+    <row r="318" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>299</v>
       </c>
@@ -9907,8 +9932,9 @@
         <v>363</v>
       </c>
       <c r="J318" s="10"/>
-    </row>
-    <row r="319" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K318" s="10"/>
+    </row>
+    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>299</v>
       </c>
@@ -9931,8 +9957,9 @@
         <v>364</v>
       </c>
       <c r="J319" s="10"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K319" s="10"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>299</v>
       </c>
@@ -9955,8 +9982,9 @@
         <v>365</v>
       </c>
       <c r="J320" s="10"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K320" s="10"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>299</v>
       </c>
@@ -9979,8 +10007,9 @@
         <v>366</v>
       </c>
       <c r="J321" s="10"/>
-    </row>
-    <row r="322" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K321" s="10"/>
+    </row>
+    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>299</v>
       </c>
@@ -10003,8 +10032,9 @@
         <v>368</v>
       </c>
       <c r="J322" s="10"/>
-    </row>
-    <row r="323" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K322" s="10"/>
+    </row>
+    <row r="323" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>299</v>
       </c>
@@ -10027,8 +10057,9 @@
         <v>369</v>
       </c>
       <c r="J323" s="10"/>
-    </row>
-    <row r="324" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K323" s="10"/>
+    </row>
+    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>299</v>
       </c>
@@ -10051,8 +10082,9 @@
         <v>370</v>
       </c>
       <c r="J324" s="10"/>
-    </row>
-    <row r="325" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K324" s="10"/>
+    </row>
+    <row r="325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>299</v>
       </c>
@@ -10075,8 +10107,9 @@
         <v>371</v>
       </c>
       <c r="J325" s="10"/>
-    </row>
-    <row r="326" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K325" s="10"/>
+    </row>
+    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>299</v>
       </c>
@@ -10099,8 +10132,9 @@
         <v>372</v>
       </c>
       <c r="J326" s="10"/>
-    </row>
-    <row r="327" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K326" s="10"/>
+    </row>
+    <row r="327" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>311</v>
       </c>
@@ -10123,7 +10157,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>311</v>
       </c>
@@ -10146,7 +10180,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>311</v>
       </c>
@@ -10169,7 +10203,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>311</v>
       </c>
@@ -10192,7 +10226,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>311</v>
       </c>
@@ -10215,7 +10249,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>311</v>
       </c>
@@ -10238,7 +10272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>311</v>
       </c>
@@ -10261,7 +10295,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>311</v>
       </c>
@@ -10284,7 +10318,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>311</v>
       </c>
@@ -10307,7 +10341,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>299</v>
       </c>
@@ -10330,8 +10364,9 @@
         <v>385</v>
       </c>
       <c r="J336" s="10"/>
-    </row>
-    <row r="337" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K336" s="10"/>
+    </row>
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>299</v>
       </c>
@@ -10354,8 +10389,9 @@
         <v>289</v>
       </c>
       <c r="J337" s="10"/>
-    </row>
-    <row r="338" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K337" s="10"/>
+    </row>
+    <row r="338" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>299</v>
       </c>
@@ -10378,8 +10414,9 @@
         <v>386</v>
       </c>
       <c r="J338" s="10"/>
-    </row>
-    <row r="339" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K338" s="10"/>
+    </row>
+    <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>299</v>
       </c>
@@ -10402,8 +10439,9 @@
         <v>387</v>
       </c>
       <c r="J339" s="10"/>
-    </row>
-    <row r="340" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K339" s="10"/>
+    </row>
+    <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>299</v>
       </c>
@@ -10426,8 +10464,9 @@
         <v>291</v>
       </c>
       <c r="J340" s="10"/>
-    </row>
-    <row r="341" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K340" s="10"/>
+    </row>
+    <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>299</v>
       </c>
@@ -10450,8 +10489,9 @@
         <v>389</v>
       </c>
       <c r="J341" s="10"/>
-    </row>
-    <row r="342" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K341" s="10"/>
+    </row>
+    <row r="342" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>299</v>
       </c>
@@ -10474,8 +10514,9 @@
         <v>390</v>
       </c>
       <c r="J342" s="10"/>
-    </row>
-    <row r="343" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K342" s="10"/>
+    </row>
+    <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>299</v>
       </c>
@@ -10498,8 +10539,9 @@
         <v>391</v>
       </c>
       <c r="J343" s="10"/>
-    </row>
-    <row r="344" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K343" s="10"/>
+    </row>
+    <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>299</v>
       </c>
@@ -10522,8 +10564,9 @@
         <v>392</v>
       </c>
       <c r="J344" s="10"/>
-    </row>
-    <row r="345" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K344" s="10"/>
+    </row>
+    <row r="345" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>299</v>
       </c>
@@ -10546,8 +10589,9 @@
         <v>393</v>
       </c>
       <c r="J345" s="10"/>
-    </row>
-    <row r="346" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K345" s="10"/>
+    </row>
+    <row r="346" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>299</v>
       </c>
@@ -10570,8 +10614,9 @@
         <v>394</v>
       </c>
       <c r="J346" s="10"/>
-    </row>
-    <row r="347" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K346" s="10"/>
+    </row>
+    <row r="347" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>299</v>
       </c>
@@ -10594,8 +10639,9 @@
         <v>396</v>
       </c>
       <c r="J347" s="10"/>
-    </row>
-    <row r="348" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K347" s="10"/>
+    </row>
+    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>299</v>
       </c>
@@ -10618,8 +10664,9 @@
         <v>397</v>
       </c>
       <c r="J348" s="10"/>
-    </row>
-    <row r="349" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K348" s="10"/>
+    </row>
+    <row r="349" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>299</v>
       </c>
@@ -10642,8 +10689,9 @@
         <v>398</v>
       </c>
       <c r="J349" s="10"/>
-    </row>
-    <row r="350" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K349" s="10"/>
+    </row>
+    <row r="350" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>299</v>
       </c>
@@ -10666,8 +10714,9 @@
         <v>399</v>
       </c>
       <c r="J350" s="10"/>
-    </row>
-    <row r="351" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K350" s="10"/>
+    </row>
+    <row r="351" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>299</v>
       </c>
@@ -10690,8 +10739,9 @@
         <v>342</v>
       </c>
       <c r="J351" s="10"/>
-    </row>
-    <row r="352" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K351" s="10"/>
+    </row>
+    <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>299</v>
       </c>
@@ -10714,8 +10764,9 @@
         <v>401</v>
       </c>
       <c r="J352" s="10"/>
-    </row>
-    <row r="353" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K352" s="10"/>
+    </row>
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>299</v>
       </c>
@@ -10738,8 +10789,9 @@
         <v>402</v>
       </c>
       <c r="J353" s="10"/>
-    </row>
-    <row r="354" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K353" s="10"/>
+    </row>
+    <row r="354" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>299</v>
       </c>
@@ -10762,8 +10814,9 @@
         <v>404</v>
       </c>
       <c r="J354" s="10"/>
-    </row>
-    <row r="355" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K354" s="10"/>
+    </row>
+    <row r="355" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>299</v>
       </c>
@@ -10786,8 +10839,9 @@
         <v>405</v>
       </c>
       <c r="J355" s="10"/>
-    </row>
-    <row r="356" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K355" s="10"/>
+    </row>
+    <row r="356" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>299</v>
       </c>
@@ -10810,8 +10864,9 @@
         <v>406</v>
       </c>
       <c r="J356" s="10"/>
-    </row>
-    <row r="357" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K356" s="10"/>
+    </row>
+    <row r="357" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>299</v>
       </c>
@@ -10834,8 +10889,9 @@
         <v>407</v>
       </c>
       <c r="J357" s="10"/>
-    </row>
-    <row r="358" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K357" s="10"/>
+    </row>
+    <row r="358" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>299</v>
       </c>
@@ -10858,8 +10914,9 @@
         <v>408</v>
       </c>
       <c r="J358" s="10"/>
-    </row>
-    <row r="359" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K358" s="10"/>
+    </row>
+    <row r="359" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>299</v>
       </c>
@@ -10882,8 +10939,9 @@
         <v>409</v>
       </c>
       <c r="J359" s="10"/>
-    </row>
-    <row r="360" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K359" s="10"/>
+    </row>
+    <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>299</v>
       </c>
@@ -10906,8 +10964,9 @@
         <v>410</v>
       </c>
       <c r="J360" s="10"/>
-    </row>
-    <row r="361" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K360" s="10"/>
+    </row>
+    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>299</v>
       </c>
@@ -10930,8 +10989,9 @@
         <v>411</v>
       </c>
       <c r="J361" s="10"/>
-    </row>
-    <row r="362" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K361" s="10"/>
+    </row>
+    <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>299</v>
       </c>
@@ -10954,8 +11014,9 @@
         <v>412</v>
       </c>
       <c r="J362" s="10"/>
-    </row>
-    <row r="363" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K362" s="10"/>
+    </row>
+    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>299</v>
       </c>
@@ -10978,8 +11039,9 @@
         <v>372</v>
       </c>
       <c r="J363" s="10"/>
-    </row>
-    <row r="364" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K363" s="10"/>
+    </row>
+    <row r="364" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>299</v>
       </c>
@@ -11002,8 +11064,9 @@
         <v>414</v>
       </c>
       <c r="J364" s="10"/>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K364" s="10"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>299</v>
       </c>
@@ -11026,8 +11089,9 @@
         <v>415</v>
       </c>
       <c r="J365" s="10"/>
-    </row>
-    <row r="366" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K365" s="10"/>
+    </row>
+    <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>299</v>
       </c>
@@ -11050,8 +11114,9 @@
         <v>416</v>
       </c>
       <c r="J366" s="10"/>
-    </row>
-    <row r="367" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K366" s="10"/>
+    </row>
+    <row r="367" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>299</v>
       </c>
@@ -11074,8 +11139,9 @@
         <v>342</v>
       </c>
       <c r="J367" s="10"/>
-    </row>
-    <row r="368" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K367" s="10"/>
+    </row>
+    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>299</v>
       </c>
@@ -11098,8 +11164,9 @@
         <v>418</v>
       </c>
       <c r="J368" s="10"/>
-    </row>
-    <row r="369" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K368" s="10"/>
+    </row>
+    <row r="369" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>299</v>
       </c>
@@ -11122,8 +11189,9 @@
         <v>419</v>
       </c>
       <c r="J369" s="10"/>
-    </row>
-    <row r="370" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K369" s="10"/>
+    </row>
+    <row r="370" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>299</v>
       </c>
@@ -11146,8 +11214,9 @@
         <v>420</v>
       </c>
       <c r="J370" s="10"/>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K370" s="10"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>299</v>
       </c>
@@ -11170,8 +11239,9 @@
         <v>421</v>
       </c>
       <c r="J371" s="10"/>
-    </row>
-    <row r="372" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K371" s="10"/>
+    </row>
+    <row r="372" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>299</v>
       </c>
@@ -11194,8 +11264,9 @@
         <v>422</v>
       </c>
       <c r="J372" s="10"/>
-    </row>
-    <row r="373" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K372" s="10"/>
+    </row>
+    <row r="373" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>299</v>
       </c>
@@ -11218,8 +11289,13 @@
         <v>423</v>
       </c>
       <c r="J373" s="10"/>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K373" s="10"/>
+      <c r="M373">
+        <f ca="1">M373</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>299</v>
       </c>
@@ -11242,8 +11318,9 @@
         <v>424</v>
       </c>
       <c r="J374" s="10"/>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K374" s="10"/>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>299</v>
       </c>
@@ -11266,8 +11343,9 @@
         <v>425</v>
       </c>
       <c r="J375" s="10"/>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K375" s="10"/>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>299</v>
       </c>
@@ -11290,8 +11368,9 @@
         <v>426</v>
       </c>
       <c r="J376" s="10"/>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K376" s="10"/>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>299</v>
       </c>
@@ -11314,8 +11393,9 @@
         <v>427</v>
       </c>
       <c r="J377" s="10"/>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K377" s="10"/>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>299</v>
       </c>
@@ -11338,8 +11418,9 @@
         <v>428</v>
       </c>
       <c r="J378" s="10"/>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K378" s="10"/>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>299</v>
       </c>
@@ -11362,8 +11443,9 @@
         <v>429</v>
       </c>
       <c r="J379" s="10"/>
-    </row>
-    <row r="380" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K379" s="10"/>
+    </row>
+    <row r="380" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>299</v>
       </c>
@@ -11386,8 +11468,9 @@
         <v>430</v>
       </c>
       <c r="J380" s="10"/>
-    </row>
-    <row r="381" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K380" s="10"/>
+    </row>
+    <row r="381" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>299</v>
       </c>
@@ -11410,8 +11493,9 @@
         <v>432</v>
       </c>
       <c r="J381" s="10"/>
-    </row>
-    <row r="382" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K381" s="10"/>
+    </row>
+    <row r="382" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>299</v>
       </c>
@@ -11434,8 +11518,9 @@
         <v>433</v>
       </c>
       <c r="J382" s="10"/>
-    </row>
-    <row r="383" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K382" s="10"/>
+    </row>
+    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>299</v>
       </c>
@@ -11458,8 +11543,9 @@
         <v>434</v>
       </c>
       <c r="J383" s="10"/>
-    </row>
-    <row r="384" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K383" s="10"/>
+    </row>
+    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>299</v>
       </c>
@@ -11482,8 +11568,9 @@
         <v>341</v>
       </c>
       <c r="J384" s="10"/>
-    </row>
-    <row r="385" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K384" s="10"/>
+    </row>
+    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>299</v>
       </c>
@@ -11506,8 +11593,9 @@
         <v>435</v>
       </c>
       <c r="J385" s="10"/>
-    </row>
-    <row r="386" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K385" s="10"/>
+    </row>
+    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>349</v>
       </c>
@@ -11530,7 +11618,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>299</v>
       </c>
@@ -11553,8 +11641,9 @@
         <v>440</v>
       </c>
       <c r="J387" s="10"/>
-    </row>
-    <row r="388" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K387" s="10"/>
+    </row>
+    <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>299</v>
       </c>
@@ -11577,8 +11666,9 @@
         <v>441</v>
       </c>
       <c r="J388" s="10"/>
-    </row>
-    <row r="389" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K388" s="10"/>
+    </row>
+    <row r="389" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>299</v>
       </c>
@@ -11601,8 +11691,9 @@
         <v>442</v>
       </c>
       <c r="J389" s="10"/>
-    </row>
-    <row r="390" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K389" s="10"/>
+    </row>
+    <row r="390" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>299</v>
       </c>
@@ -11625,8 +11716,9 @@
         <v>443</v>
       </c>
       <c r="J390" s="10"/>
-    </row>
-    <row r="391" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K390" s="10"/>
+    </row>
+    <row r="391" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>86</v>
       </c>
@@ -11649,7 +11741,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>86</v>
       </c>
@@ -11672,7 +11764,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>86</v>
       </c>
@@ -11695,7 +11787,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>86</v>
       </c>
@@ -11718,7 +11810,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>233</v>
       </c>
@@ -11741,7 +11833,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>233</v>
       </c>
@@ -11764,7 +11856,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>86</v>
       </c>
@@ -11787,7 +11879,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>86</v>
       </c>
@@ -11810,7 +11902,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>86</v>
       </c>
@@ -11833,7 +11925,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>86</v>
       </c>

--- a/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
@@ -1808,11 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="M373" sqref="M373"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1853,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>6</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>331</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>331</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>123</v>
       </c>
@@ -2434,7 +2433,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>123</v>
       </c>
@@ -2462,7 +2461,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>280</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>123</v>
       </c>
@@ -2515,7 +2514,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>123</v>
       </c>
@@ -2543,7 +2542,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>123</v>
       </c>
@@ -2571,7 +2570,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>123</v>
       </c>
@@ -2599,7 +2598,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>123</v>
       </c>
@@ -2627,7 +2626,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>123</v>
       </c>
@@ -2655,7 +2654,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>123</v>
       </c>
@@ -2683,7 +2682,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>123</v>
       </c>
@@ -2711,7 +2710,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>123</v>
       </c>
@@ -2739,7 +2738,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>123</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>123</v>
       </c>
@@ -2795,7 +2794,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>123</v>
       </c>
@@ -2823,7 +2822,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>123</v>
       </c>
@@ -2851,7 +2850,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>123</v>
       </c>
@@ -2879,7 +2878,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>123</v>
       </c>
@@ -2907,7 +2906,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>123</v>
       </c>
@@ -2935,7 +2934,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>123</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>123</v>
       </c>
@@ -2991,7 +2990,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>123</v>
       </c>
@@ -3021,7 +3020,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>123</v>
       </c>
@@ -3049,7 +3048,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>123</v>
       </c>
@@ -3077,7 +3076,7 @@
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>123</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>123</v>
       </c>
@@ -3133,7 +3132,7 @@
       <c r="K51" s="11"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>123</v>
       </c>
@@ -3161,7 +3160,7 @@
       <c r="K52" s="11"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>123</v>
       </c>
@@ -3189,7 +3188,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>123</v>
       </c>
@@ -3217,7 +3216,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>123</v>
       </c>
@@ -3245,7 +3244,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>123</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>123</v>
       </c>
@@ -3301,7 +3300,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>123</v>
       </c>
@@ -3329,7 +3328,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>123</v>
       </c>
@@ -3357,7 +3356,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>123</v>
       </c>
@@ -3385,7 +3384,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>123</v>
       </c>
@@ -3413,7 +3412,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>123</v>
       </c>
@@ -3441,7 +3440,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>123</v>
       </c>
@@ -3469,7 +3468,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>123</v>
       </c>
@@ -3497,7 +3496,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>123</v>
       </c>
@@ -3525,7 +3524,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>123</v>
       </c>
@@ -3553,7 +3552,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>123</v>
       </c>
@@ -3581,7 +3580,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>123</v>
       </c>
@@ -3609,7 +3608,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>123</v>
       </c>
@@ -3637,7 +3636,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>123</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>123</v>
       </c>
@@ -3693,7 +3692,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>123</v>
       </c>
@@ -3721,7 +3720,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>123</v>
       </c>
@@ -3749,7 +3748,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>123</v>
       </c>
@@ -3777,7 +3776,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>123</v>
       </c>
@@ -3805,7 +3804,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>123</v>
       </c>
@@ -3833,7 +3832,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>123</v>
       </c>
@@ -3861,7 +3860,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>123</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>123</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>123</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>123</v>
       </c>
@@ -3973,7 +3972,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>123</v>
       </c>
@@ -4001,7 +4000,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>123</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>123</v>
       </c>
@@ -4057,7 +4056,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>123</v>
       </c>
@@ -4085,7 +4084,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>123</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>123</v>
       </c>
@@ -4141,7 +4140,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>123</v>
       </c>
@@ -4169,7 +4168,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>123</v>
       </c>
@@ -4197,7 +4196,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>123</v>
       </c>
@@ -4225,7 +4224,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>123</v>
       </c>
@@ -4253,7 +4252,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>123</v>
       </c>
@@ -4281,7 +4280,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>123</v>
       </c>
@@ -4309,7 +4308,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>123</v>
       </c>
@@ -4337,7 +4336,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>123</v>
       </c>
@@ -4365,7 +4364,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>123</v>
       </c>
@@ -4393,7 +4392,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>123</v>
       </c>
@@ -4421,7 +4420,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>123</v>
       </c>
@@ -4449,7 +4448,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>123</v>
       </c>
@@ -4477,7 +4476,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>123</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>123</v>
       </c>
@@ -4535,7 +4534,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>123</v>
       </c>
@@ -4563,7 +4562,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>123</v>
       </c>
@@ -4591,7 +4590,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>123</v>
       </c>
@@ -4619,7 +4618,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>123</v>
       </c>
@@ -4647,7 +4646,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>123</v>
       </c>
@@ -4675,7 +4674,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>123</v>
       </c>
@@ -4703,7 +4702,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>123</v>
       </c>
@@ -4731,7 +4730,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>123</v>
       </c>
@@ -4759,7 +4758,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>123</v>
       </c>
@@ -4787,7 +4786,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>123</v>
       </c>
@@ -4815,7 +4814,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>123</v>
       </c>
@@ -4843,7 +4842,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>123</v>
       </c>
@@ -4871,7 +4870,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>123</v>
       </c>
@@ -4899,7 +4898,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>123</v>
       </c>
@@ -4927,7 +4926,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>123</v>
       </c>
@@ -4955,7 +4954,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>123</v>
       </c>
@@ -4983,7 +4982,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>123</v>
       </c>
@@ -5011,7 +5010,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>123</v>
       </c>
@@ -5039,7 +5038,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>123</v>
       </c>
@@ -5067,7 +5066,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>123</v>
       </c>
@@ -5095,7 +5094,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>123</v>
       </c>
@@ -5123,7 +5122,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -5151,7 +5150,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5179,7 +5178,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -5207,7 +5206,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -5235,7 +5234,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>123</v>
       </c>
@@ -5263,7 +5262,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>308</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>308</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>311</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>311</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>311</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>311</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>311</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>123</v>
       </c>
@@ -5452,7 +5451,7 @@
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>86</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>86</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>86</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>86</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>86</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>86</v>
       </c>
@@ -5594,7 +5593,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>86</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>86</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>86</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>86</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>86</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>86</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>86</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>86</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>86</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>86</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>86</v>
       </c>
@@ -5848,7 +5847,7 @@
       </c>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>86</v>
       </c>
@@ -5872,7 +5871,7 @@
       </c>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>86</v>
       </c>
@@ -5896,7 +5895,7 @@
       </c>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>86</v>
       </c>
@@ -5920,7 +5919,7 @@
       </c>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>86</v>
       </c>
@@ -5944,7 +5943,7 @@
       </c>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>86</v>
       </c>
@@ -5968,7 +5967,7 @@
       </c>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>86</v>
       </c>
@@ -5992,7 +5991,7 @@
       </c>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>86</v>
       </c>
@@ -6016,7 +6015,7 @@
       </c>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>86</v>
       </c>
@@ -6040,7 +6039,7 @@
       </c>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>86</v>
       </c>
@@ -6064,7 +6063,7 @@
       </c>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>86</v>
       </c>
@@ -6088,7 +6087,7 @@
       </c>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>86</v>
       </c>
@@ -6112,7 +6111,7 @@
       </c>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>86</v>
       </c>
@@ -6136,7 +6135,7 @@
       </c>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>311</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>311</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>311</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>311</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>311</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>86</v>
       </c>
@@ -6275,7 +6274,7 @@
       </c>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>86</v>
       </c>
@@ -6299,7 +6298,7 @@
       </c>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>86</v>
       </c>
@@ -6323,7 +6322,7 @@
       </c>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>86</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>86</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>306</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>306</v>
       </c>
@@ -6419,7 +6418,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>306</v>
       </c>
@@ -6443,7 +6442,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>306</v>
       </c>
@@ -6467,7 +6466,7 @@
       </c>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>306</v>
       </c>
@@ -6491,7 +6490,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>311</v>
       </c>
@@ -6516,7 +6515,7 @@
       <c r="H180" s="10"/>
       <c r="J180" s="10"/>
     </row>
-    <row r="181" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>311</v>
       </c>
@@ -6541,7 +6540,7 @@
       <c r="H181" s="10"/>
       <c r="J181" s="10"/>
     </row>
-    <row r="182" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>311</v>
       </c>
@@ -6566,7 +6565,7 @@
       <c r="H182" s="10"/>
       <c r="J182" s="10"/>
     </row>
-    <row r="183" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>306</v>
       </c>
@@ -6590,7 +6589,7 @@
       </c>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>311</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>311</v>
       </c>
@@ -6644,7 +6643,7 @@
       <c r="H185" s="10"/>
       <c r="J185" s="10"/>
     </row>
-    <row r="186" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>311</v>
       </c>
@@ -6669,7 +6668,7 @@
       <c r="H186" s="10"/>
       <c r="J186" s="10"/>
     </row>
-    <row r="187" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>311</v>
       </c>
@@ -6694,7 +6693,7 @@
       <c r="H187" s="10"/>
       <c r="J187" s="10"/>
     </row>
-    <row r="188" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>311</v>
       </c>
@@ -6719,7 +6718,7 @@
       <c r="H188" s="10"/>
       <c r="J188" s="10"/>
     </row>
-    <row r="189" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>311</v>
       </c>
@@ -6744,7 +6743,7 @@
       <c r="H189" s="10"/>
       <c r="J189" s="10"/>
     </row>
-    <row r="190" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>311</v>
       </c>
@@ -6769,7 +6768,7 @@
       <c r="H190" s="10"/>
       <c r="J190" s="10"/>
     </row>
-    <row r="191" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>311</v>
       </c>
@@ -6794,7 +6793,7 @@
       <c r="H191" s="10"/>
       <c r="J191" s="10"/>
     </row>
-    <row r="192" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>311</v>
       </c>
@@ -6819,7 +6818,7 @@
       <c r="H192" s="10"/>
       <c r="J192" s="10"/>
     </row>
-    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>311</v>
       </c>
@@ -6844,7 +6843,7 @@
       <c r="H193" s="10"/>
       <c r="J193" s="10"/>
     </row>
-    <row r="194" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>311</v>
       </c>
@@ -6869,7 +6868,7 @@
       <c r="H194" s="10"/>
       <c r="J194" s="10"/>
     </row>
-    <row r="195" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>311</v>
       </c>
@@ -6894,7 +6893,7 @@
       <c r="H195" s="10"/>
       <c r="J195" s="10"/>
     </row>
-    <row r="196" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>311</v>
       </c>
@@ -6919,7 +6918,7 @@
       <c r="H196" s="10"/>
       <c r="J196" s="10"/>
     </row>
-    <row r="197" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>311</v>
       </c>
@@ -6944,7 +6943,7 @@
       <c r="H197" s="10"/>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>311</v>
       </c>
@@ -6969,7 +6968,7 @@
       <c r="H198" s="10"/>
       <c r="J198" s="10"/>
     </row>
-    <row r="199" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>311</v>
       </c>
@@ -6994,7 +6993,7 @@
       <c r="H199" s="10"/>
       <c r="J199" s="10"/>
     </row>
-    <row r="200" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>311</v>
       </c>
@@ -7019,7 +7018,7 @@
       <c r="H200" s="10"/>
       <c r="J200" s="10"/>
     </row>
-    <row r="201" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>311</v>
       </c>
@@ -7044,7 +7043,7 @@
       <c r="H201" s="10"/>
       <c r="J201" s="10"/>
     </row>
-    <row r="202" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>311</v>
       </c>
@@ -7069,7 +7068,7 @@
       <c r="H202" s="10"/>
       <c r="J202" s="10"/>
     </row>
-    <row r="203" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>311</v>
       </c>
@@ -7094,7 +7093,7 @@
       <c r="H203" s="10"/>
       <c r="J203" s="10"/>
     </row>
-    <row r="204" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>311</v>
       </c>
@@ -7118,7 +7117,7 @@
       </c>
       <c r="J204" s="10"/>
     </row>
-    <row r="205" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>311</v>
       </c>
@@ -7142,7 +7141,7 @@
       </c>
       <c r="J205" s="10"/>
     </row>
-    <row r="206" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>311</v>
       </c>
@@ -7166,7 +7165,7 @@
       </c>
       <c r="J206" s="10"/>
     </row>
-    <row r="207" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>311</v>
       </c>
@@ -7190,7 +7189,7 @@
       </c>
       <c r="J207" s="10"/>
     </row>
-    <row r="208" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>311</v>
       </c>
@@ -7214,7 +7213,7 @@
       </c>
       <c r="J208" s="10"/>
     </row>
-    <row r="209" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>311</v>
       </c>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>311</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>311</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>311</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>311</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>311</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>311</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>311</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>311</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>311</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>311</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>311</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>311</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>311</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>311</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>311</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>88</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>86</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>296</v>
       </c>
@@ -10134,7 +10133,7 @@
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>311</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>311</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>311</v>
       </c>
@@ -10203,7 +10202,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>311</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>311</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>311</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>311</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>311</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>311</v>
       </c>
@@ -11595,7 +11594,7 @@
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>349</v>
       </c>
@@ -11718,7 +11717,7 @@
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>86</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>86</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>86</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>86</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>233</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>233</v>
       </c>
@@ -11856,7 +11855,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>86</v>
       </c>
@@ -11879,7 +11878,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>86</v>
       </c>
@@ -11902,7 +11901,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>86</v>
       </c>
@@ -11925,7 +11924,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>86</v>
       </c>
@@ -11948,7 +11947,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>86</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>86</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>86</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>86</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>86</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>86</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>86</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>86</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>86</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>86</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>86</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>86</v>
       </c>
@@ -12225,13 +12224,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G412">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="State Regulatory Compliance"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G412"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Data for 2015 year (Better).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat36\SparkleShare\sparkle\Extended Campuses\Self Appraisals\2015\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="11490"/>
   </bookViews>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$412</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1448,11 +1443,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,7 +1476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1504,6 +1499,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1513,21 +1521,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1588,7 +1600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1623,7 +1635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1800,21 +1812,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -1823,9 +1835,10 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.140625" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1844,16 +1857,11 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -1872,11 +1880,11 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -1895,11 +1903,11 @@
       <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -1918,11 +1926,11 @@
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1941,11 +1949,11 @@
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -1964,11 +1972,11 @@
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="105">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1987,11 +1995,11 @@
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2010,11 +2018,11 @@
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2033,11 +2041,11 @@
       <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2056,11 +2064,11 @@
       <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2079,11 +2087,11 @@
       <c r="F11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2102,11 +2110,11 @@
       <c r="F12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -2125,11 +2133,11 @@
       <c r="F13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -2148,11 +2156,11 @@
       <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2171,11 +2179,11 @@
       <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -2194,11 +2202,11 @@
       <c r="F16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -2217,11 +2225,11 @@
       <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -2240,11 +2248,11 @@
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -2263,11 +2271,11 @@
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>6</v>
       </c>
@@ -2286,11 +2294,11 @@
       <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2309,11 +2317,11 @@
       <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -2332,11 +2340,11 @@
       <c r="F22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -2355,11 +2363,11 @@
       <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="6">
         <v>331</v>
       </c>
@@ -2378,11 +2386,11 @@
       <c r="F24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="6">
         <v>331</v>
       </c>
@@ -2401,11 +2409,11 @@
       <c r="F25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="3">
         <v>123</v>
       </c>
@@ -2424,16 +2432,11 @@
       <c r="F26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="3">
         <v>123</v>
       </c>
@@ -2452,16 +2455,11 @@
       <c r="F27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="6">
         <v>280</v>
       </c>
@@ -2480,11 +2478,11 @@
       <c r="F28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="75">
       <c r="A29" s="3">
         <v>123</v>
       </c>
@@ -2503,18 +2501,14 @@
       <c r="F29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <v>1</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="60">
       <c r="A30" s="3">
         <v>123</v>
       </c>
@@ -2533,16 +2527,12 @@
       <c r="F30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="45">
       <c r="A31" s="3">
         <v>123</v>
       </c>
@@ -2561,16 +2551,12 @@
       <c r="F31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="60">
       <c r="A32" s="3">
         <v>123</v>
       </c>
@@ -2589,16 +2575,12 @@
       <c r="F32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="30">
       <c r="A33" s="6">
         <v>123</v>
       </c>
@@ -2617,16 +2599,12 @@
       <c r="F33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="6">
         <v>123</v>
       </c>
@@ -2645,16 +2623,12 @@
       <c r="F34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="3">
         <v>123</v>
       </c>
@@ -2673,16 +2647,12 @@
       <c r="F35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="3">
         <v>123</v>
       </c>
@@ -2701,16 +2671,12 @@
       <c r="F36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="90">
       <c r="A37" s="6">
         <v>123</v>
       </c>
@@ -2729,16 +2695,12 @@
       <c r="F37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="30">
       <c r="A38" s="6">
         <v>123</v>
       </c>
@@ -2757,16 +2719,12 @@
       <c r="F38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="30">
       <c r="A39" s="3">
         <v>123</v>
       </c>
@@ -2785,16 +2743,12 @@
       <c r="F39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="60">
       <c r="A40" s="3">
         <v>123</v>
       </c>
@@ -2813,16 +2767,12 @@
       <c r="F40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="30">
       <c r="A41" s="3">
         <v>123</v>
       </c>
@@ -2841,16 +2791,12 @@
       <c r="F41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="105">
       <c r="A42" s="3">
         <v>123</v>
       </c>
@@ -2869,16 +2815,12 @@
       <c r="F42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="45">
       <c r="A43" s="3">
         <v>123</v>
       </c>
@@ -2897,16 +2839,12 @@
       <c r="F43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="30">
       <c r="A44" s="3">
         <v>123</v>
       </c>
@@ -2925,16 +2863,12 @@
       <c r="F44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="45">
       <c r="A45" s="6">
         <v>123</v>
       </c>
@@ -2953,16 +2887,12 @@
       <c r="F45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="30">
       <c r="A46" s="6">
         <v>123</v>
       </c>
@@ -2981,16 +2911,12 @@
       <c r="F46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="45">
       <c r="A47" s="3">
         <v>123</v>
       </c>
@@ -3009,18 +2935,15 @@
       <c r="F47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="11">
+      <c r="H47" s="9"/>
+      <c r="K47" s="9">
         <v>1</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" ht="75">
       <c r="A48" s="3">
         <v>123</v>
       </c>
@@ -3039,16 +2962,13 @@
       <c r="F48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H48" s="9"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="60">
       <c r="A49" s="3">
         <v>123</v>
       </c>
@@ -3067,16 +2987,13 @@
       <c r="F49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H49" s="9"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" ht="45">
       <c r="A50" s="3">
         <v>123</v>
       </c>
@@ -3095,16 +3012,13 @@
       <c r="F50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="105">
       <c r="A51" s="3">
         <v>123</v>
       </c>
@@ -3123,16 +3037,13 @@
       <c r="F51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H51" s="9"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="45">
       <c r="A52" s="3">
         <v>123</v>
       </c>
@@ -3151,16 +3062,13 @@
       <c r="F52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H52" s="9"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" ht="60">
       <c r="A53" s="6">
         <v>123</v>
       </c>
@@ -3179,16 +3087,12 @@
       <c r="F53" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="45">
       <c r="A54" s="6">
         <v>123</v>
       </c>
@@ -3207,16 +3111,12 @@
       <c r="F54" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" ht="90">
       <c r="A55" s="6">
         <v>123</v>
       </c>
@@ -3235,16 +3135,12 @@
       <c r="F55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="30">
       <c r="A56" s="6">
         <v>123</v>
       </c>
@@ -3263,16 +3159,12 @@
       <c r="F56" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="6">
         <v>123</v>
       </c>
@@ -3291,16 +3183,12 @@
       <c r="F57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="45">
       <c r="A58" s="6">
         <v>123</v>
       </c>
@@ -3319,16 +3207,12 @@
       <c r="F58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" ht="90">
       <c r="A59" s="3">
         <v>123</v>
       </c>
@@ -3347,16 +3231,12 @@
       <c r="F59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" ht="60">
       <c r="A60" s="3">
         <v>123</v>
       </c>
@@ -3375,16 +3255,12 @@
       <c r="F60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" ht="150">
       <c r="A61" s="3">
         <v>123</v>
       </c>
@@ -3403,16 +3279,12 @@
       <c r="F61" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" ht="90">
       <c r="A62" s="6">
         <v>123</v>
       </c>
@@ -3431,16 +3303,12 @@
       <c r="F62" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" ht="45">
       <c r="A63" s="6">
         <v>123</v>
       </c>
@@ -3459,16 +3327,12 @@
       <c r="F63" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" ht="30">
       <c r="A64" s="6">
         <v>123</v>
       </c>
@@ -3487,16 +3351,12 @@
       <c r="F64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" ht="105">
       <c r="A65" s="6">
         <v>123</v>
       </c>
@@ -3515,16 +3375,12 @@
       <c r="F65" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="60">
       <c r="A66" s="6">
         <v>123</v>
       </c>
@@ -3543,16 +3399,12 @@
       <c r="F66" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="45">
       <c r="A67" s="6">
         <v>123</v>
       </c>
@@ -3571,16 +3423,12 @@
       <c r="F67" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="75">
       <c r="A68" s="3">
         <v>123</v>
       </c>
@@ -3599,16 +3447,12 @@
       <c r="F68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" ht="45">
       <c r="A69" s="3">
         <v>123</v>
       </c>
@@ -3627,16 +3471,12 @@
       <c r="F69" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="11"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="1:8" ht="30">
       <c r="A70" s="3">
         <v>123</v>
       </c>
@@ -3655,16 +3495,12 @@
       <c r="F70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" ht="60">
       <c r="A71" s="6">
         <v>123</v>
       </c>
@@ -3683,16 +3519,12 @@
       <c r="F71" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8" ht="75">
       <c r="A72" s="6">
         <v>123</v>
       </c>
@@ -3711,16 +3543,12 @@
       <c r="F72" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="1:8" ht="60">
       <c r="A73" s="3">
         <v>123</v>
       </c>
@@ -3739,16 +3567,12 @@
       <c r="F73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="3">
         <v>123</v>
       </c>
@@ -3767,16 +3591,12 @@
       <c r="F74" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="1:8" ht="30">
       <c r="A75" s="3">
         <v>123</v>
       </c>
@@ -3795,16 +3615,12 @@
       <c r="F75" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:8" ht="90">
       <c r="A76" s="6">
         <v>123</v>
       </c>
@@ -3823,16 +3639,12 @@
       <c r="F76" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8" ht="45">
       <c r="A77" s="6">
         <v>123</v>
       </c>
@@ -3851,16 +3663,12 @@
       <c r="F77" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" ht="45">
       <c r="A78" s="6">
         <v>123</v>
       </c>
@@ -3879,16 +3687,12 @@
       <c r="F78" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" ht="45">
       <c r="A79" s="6">
         <v>123</v>
       </c>
@@ -3907,16 +3711,12 @@
       <c r="F79" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" ht="105">
       <c r="A80" s="3">
         <v>123</v>
       </c>
@@ -3935,16 +3735,12 @@
       <c r="F80" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8" ht="60">
       <c r="A81" s="3">
         <v>123</v>
       </c>
@@ -3963,16 +3759,12 @@
       <c r="F81" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="1:8" ht="30">
       <c r="A82" s="3">
         <v>123</v>
       </c>
@@ -3991,16 +3783,12 @@
       <c r="F82" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" ht="30">
       <c r="A83" s="3">
         <v>123</v>
       </c>
@@ -4019,16 +3807,12 @@
       <c r="F83" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="1:8" ht="75">
       <c r="A84" s="6">
         <v>123</v>
       </c>
@@ -4047,16 +3831,11 @@
       <c r="F84" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" ht="105">
       <c r="A85" s="6">
         <v>123</v>
       </c>
@@ -4075,16 +3854,11 @@
       <c r="F85" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="6">
         <v>123</v>
       </c>
@@ -4103,16 +3877,11 @@
       <c r="F86" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" ht="60">
       <c r="A87" s="6">
         <v>123</v>
       </c>
@@ -4131,16 +3900,11 @@
       <c r="F87" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" ht="30">
       <c r="A88" s="3">
         <v>123</v>
       </c>
@@ -4159,16 +3923,11 @@
       <c r="F88" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" ht="45">
       <c r="A89" s="6">
         <v>123</v>
       </c>
@@ -4187,16 +3946,11 @@
       <c r="F89" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" ht="105">
       <c r="A90" s="6">
         <v>123</v>
       </c>
@@ -4215,16 +3969,11 @@
       <c r="F90" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" ht="120">
       <c r="A91" s="6">
         <v>123</v>
       </c>
@@ -4243,16 +3992,11 @@
       <c r="F91" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" ht="45">
       <c r="A92" s="6">
         <v>123</v>
       </c>
@@ -4271,16 +4015,11 @@
       <c r="F92" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" ht="75">
       <c r="A93" s="6">
         <v>123</v>
       </c>
@@ -4299,16 +4038,11 @@
       <c r="F93" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" ht="45">
       <c r="A94" s="6">
         <v>123</v>
       </c>
@@ -4327,16 +4061,11 @@
       <c r="F94" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" ht="75">
       <c r="A95" s="3">
         <v>123</v>
       </c>
@@ -4355,16 +4084,11 @@
       <c r="F95" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" ht="90">
       <c r="A96" s="3">
         <v>123</v>
       </c>
@@ -4383,16 +4107,11 @@
       <c r="F96" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="3">
         <v>123</v>
       </c>
@@ -4411,16 +4130,11 @@
       <c r="F97" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" ht="135">
       <c r="A98" s="3">
         <v>123</v>
       </c>
@@ -4439,16 +4153,11 @@
       <c r="F98" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" ht="75">
       <c r="A99" s="3">
         <v>123</v>
       </c>
@@ -4467,16 +4176,11 @@
       <c r="F99" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" ht="90">
       <c r="A100" s="3">
         <v>123</v>
       </c>
@@ -4495,16 +4199,11 @@
       <c r="F100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" ht="45">
       <c r="A101" s="6">
         <v>123</v>
       </c>
@@ -4523,18 +4222,14 @@
       <c r="F101" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="11">
+      <c r="I101" s="9">
         <v>1</v>
       </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:9" ht="45">
       <c r="A102" s="6">
         <v>123</v>
       </c>
@@ -4553,16 +4248,12 @@
       <c r="F102" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" ht="60">
       <c r="A103" s="6">
         <v>123</v>
       </c>
@@ -4581,16 +4272,12 @@
       <c r="F103" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="6">
         <v>123</v>
       </c>
@@ -4609,16 +4296,12 @@
       <c r="F104" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="6">
         <v>123</v>
       </c>
@@ -4637,16 +4320,12 @@
       <c r="F105" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="6">
         <v>123</v>
       </c>
@@ -4665,16 +4344,12 @@
       <c r="F106" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="6">
         <v>123</v>
       </c>
@@ -4693,16 +4368,12 @@
       <c r="F107" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="6">
         <v>123</v>
       </c>
@@ -4721,16 +4392,12 @@
       <c r="F108" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" ht="45">
       <c r="A109" s="6">
         <v>123</v>
       </c>
@@ -4749,16 +4416,12 @@
       <c r="F109" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" ht="60">
       <c r="A110" s="3">
         <v>123</v>
       </c>
@@ -4777,16 +4440,12 @@
       <c r="F110" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" ht="105">
       <c r="A111" s="3">
         <v>123</v>
       </c>
@@ -4805,16 +4464,12 @@
       <c r="F111" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="1:9" ht="90">
       <c r="A112" s="3">
         <v>123</v>
       </c>
@@ -4833,16 +4488,12 @@
       <c r="F112" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" ht="120">
       <c r="A113" s="3">
         <v>123</v>
       </c>
@@ -4861,16 +4512,12 @@
       <c r="F113" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="1:9" ht="75">
       <c r="A114" s="3">
         <v>123</v>
       </c>
@@ -4889,16 +4536,12 @@
       <c r="F114" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="3">
         <v>123</v>
       </c>
@@ -4917,16 +4560,12 @@
       <c r="F115" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I115" s="9"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="3">
         <v>123</v>
       </c>
@@ -4945,16 +4584,12 @@
       <c r="F116" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-    </row>
-    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I116" s="9"/>
+    </row>
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="3">
         <v>123</v>
       </c>
@@ -4973,16 +4608,12 @@
       <c r="F117" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I117" s="9"/>
+    </row>
+    <row r="118" spans="1:9" ht="60">
       <c r="A118" s="6">
         <v>123</v>
       </c>
@@ -5001,16 +4632,12 @@
       <c r="F118" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G118" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I118" s="9"/>
+    </row>
+    <row r="119" spans="1:9" ht="60">
       <c r="A119" s="6">
         <v>123</v>
       </c>
@@ -5029,16 +4656,12 @@
       <c r="F119" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I119" s="9"/>
+    </row>
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="6">
         <v>123</v>
       </c>
@@ -5057,16 +4680,12 @@
       <c r="F120" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I120" s="9"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="6">
         <v>123</v>
       </c>
@@ -5085,16 +4704,12 @@
       <c r="F121" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-    </row>
-    <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I121" s="9"/>
+    </row>
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="6">
         <v>123</v>
       </c>
@@ -5113,16 +4728,12 @@
       <c r="F122" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-    </row>
-    <row r="123" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="I122" s="9"/>
+    </row>
+    <row r="123" spans="1:9" ht="90">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -5141,16 +4752,12 @@
       <c r="F123" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G123" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-    </row>
-    <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I123" s="9"/>
+    </row>
+    <row r="124" spans="1:9" ht="60">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5169,16 +4776,12 @@
       <c r="F124" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G124" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-    </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I124" s="9"/>
+    </row>
+    <row r="125" spans="1:9" ht="45">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -5197,16 +4800,12 @@
       <c r="F125" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G125" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I125" s="9"/>
+    </row>
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -5225,16 +4824,12 @@
       <c r="F126" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I126" s="9"/>
+    </row>
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="3">
         <v>123</v>
       </c>
@@ -5253,16 +4848,12 @@
       <c r="F127" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I127" s="9"/>
+    </row>
+    <row r="128" spans="1:9" ht="60">
       <c r="A128" s="6">
         <v>308</v>
       </c>
@@ -5281,11 +4872,11 @@
       <c r="F128" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="45">
       <c r="A129" s="6">
         <v>308</v>
       </c>
@@ -5304,11 +4895,11 @@
       <c r="F129" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="75">
       <c r="A130" s="3">
         <v>311</v>
       </c>
@@ -5327,11 +4918,11 @@
       <c r="F130" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G130" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45">
       <c r="A131" s="3">
         <v>311</v>
       </c>
@@ -5350,11 +4941,11 @@
       <c r="F131" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="105">
       <c r="A132" s="3">
         <v>311</v>
       </c>
@@ -5373,11 +4964,11 @@
       <c r="F132" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G132" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="3">
         <v>311</v>
       </c>
@@ -5396,11 +4987,11 @@
       <c r="F133" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G133" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45">
       <c r="A134" s="3">
         <v>311</v>
       </c>
@@ -5419,11 +5010,11 @@
       <c r="F134" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="60">
       <c r="A135" s="6">
         <v>123</v>
       </c>
@@ -5442,16 +5033,12 @@
       <c r="F135" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G135" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="3">
         <v>86</v>
       </c>
@@ -5470,11 +5057,11 @@
       <c r="F136" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="60">
       <c r="A137" s="3">
         <v>86</v>
       </c>
@@ -5493,11 +5080,11 @@
       <c r="F137" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="60">
       <c r="A138" s="3">
         <v>86</v>
       </c>
@@ -5516,11 +5103,11 @@
       <c r="F138" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="75">
       <c r="A139" s="3">
         <v>86</v>
       </c>
@@ -5539,11 +5126,11 @@
       <c r="F139" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G139" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="90">
       <c r="A140" s="3">
         <v>86</v>
       </c>
@@ -5562,14 +5149,14 @@
       <c r="F140" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G140" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I140" s="10">
+      <c r="I140" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="90">
       <c r="A141" s="3">
         <v>86</v>
       </c>
@@ -5588,12 +5175,12 @@
       <c r="F141" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="G141" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I141" s="10"/>
-    </row>
-    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I141" s="9"/>
+    </row>
+    <row r="142" spans="1:9" ht="45">
       <c r="A142" s="3">
         <v>86</v>
       </c>
@@ -5612,11 +5199,11 @@
       <c r="F142" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="75">
       <c r="A143" s="6">
         <v>86</v>
       </c>
@@ -5635,11 +5222,11 @@
       <c r="F143" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="6">
         <v>86</v>
       </c>
@@ -5658,11 +5245,11 @@
       <c r="F144" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G144" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="6">
         <v>86</v>
       </c>
@@ -5681,11 +5268,11 @@
       <c r="F145" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="45">
       <c r="A146" s="6">
         <v>86</v>
       </c>
@@ -5704,11 +5291,11 @@
       <c r="F146" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G146" s="8" t="s">
+      <c r="G146" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="75">
       <c r="A147" s="6">
         <v>86</v>
       </c>
@@ -5727,11 +5314,11 @@
       <c r="F147" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="G147" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30">
       <c r="A148" s="6">
         <v>86</v>
       </c>
@@ -5750,11 +5337,11 @@
       <c r="F148" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="G148" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30">
       <c r="A149" s="6">
         <v>86</v>
       </c>
@@ -5773,11 +5360,11 @@
       <c r="F149" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="G149" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="30">
       <c r="A150" s="6">
         <v>86</v>
       </c>
@@ -5796,11 +5383,11 @@
       <c r="F150" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G150" s="8" t="s">
+      <c r="G150" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" s="6">
         <v>86</v>
       </c>
@@ -5819,11 +5406,11 @@
       <c r="F151" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G151" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="90">
       <c r="A152" s="3">
         <v>86</v>
       </c>
@@ -5842,12 +5429,12 @@
       <c r="F152" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K152" s="10"/>
-    </row>
-    <row r="153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K152" s="9"/>
+    </row>
+    <row r="153" spans="1:11" ht="45">
       <c r="A153" s="3">
         <v>86</v>
       </c>
@@ -5866,12 +5453,12 @@
       <c r="F153" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="G153" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K153" s="10"/>
-    </row>
-    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K153" s="9"/>
+    </row>
+    <row r="154" spans="1:11" ht="30">
       <c r="A154" s="3">
         <v>86</v>
       </c>
@@ -5890,12 +5477,12 @@
       <c r="F154" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="K154" s="10"/>
-    </row>
-    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K154" s="9"/>
+    </row>
+    <row r="155" spans="1:11" ht="45">
       <c r="A155" s="3">
         <v>86</v>
       </c>
@@ -5914,12 +5501,12 @@
       <c r="F155" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G155" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K155" s="10"/>
-    </row>
-    <row r="156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K155" s="9"/>
+    </row>
+    <row r="156" spans="1:11" ht="60">
       <c r="A156" s="3">
         <v>86</v>
       </c>
@@ -5938,12 +5525,12 @@
       <c r="F156" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G156" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="K156" s="10"/>
-    </row>
-    <row r="157" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:11" ht="105">
       <c r="A157" s="3">
         <v>86</v>
       </c>
@@ -5962,12 +5549,12 @@
       <c r="F157" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="G157" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K157" s="10"/>
-    </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K157" s="9"/>
+    </row>
+    <row r="158" spans="1:11" ht="30">
       <c r="A158" s="3">
         <v>86</v>
       </c>
@@ -5986,12 +5573,12 @@
       <c r="F158" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="G158" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K158" s="10"/>
-    </row>
-    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K158" s="9"/>
+    </row>
+    <row r="159" spans="1:11" ht="30">
       <c r="A159" s="3">
         <v>86</v>
       </c>
@@ -6010,12 +5597,12 @@
       <c r="F159" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="G159" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K159" s="10"/>
-    </row>
-    <row r="160" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" ht="105">
       <c r="A160" s="3">
         <v>86</v>
       </c>
@@ -6034,12 +5621,12 @@
       <c r="F160" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="G160" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K160" s="10"/>
-    </row>
-    <row r="161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="1:11" ht="60">
       <c r="A161" s="3">
         <v>86</v>
       </c>
@@ -6058,12 +5645,12 @@
       <c r="F161" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="G161" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K161" s="10"/>
-    </row>
-    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11" ht="30">
       <c r="A162" s="3">
         <v>86</v>
       </c>
@@ -6082,12 +5669,12 @@
       <c r="F162" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="G162" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="K162" s="10"/>
-    </row>
-    <row r="163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" spans="1:11" ht="75">
       <c r="A163" s="3">
         <v>86</v>
       </c>
@@ -6106,12 +5693,12 @@
       <c r="F163" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="G163" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K163" s="10"/>
-    </row>
-    <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K163" s="9"/>
+    </row>
+    <row r="164" spans="1:11" ht="45">
       <c r="A164" s="3">
         <v>86</v>
       </c>
@@ -6130,12 +5717,12 @@
       <c r="F164" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="G164" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K164" s="10"/>
-    </row>
-    <row r="165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K164" s="9"/>
+    </row>
+    <row r="165" spans="1:11" ht="75">
       <c r="A165" s="6">
         <v>311</v>
       </c>
@@ -6154,11 +5741,11 @@
       <c r="F165" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G165" s="8" t="s">
+      <c r="G165" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="45">
       <c r="A166" s="6">
         <v>311</v>
       </c>
@@ -6177,11 +5764,11 @@
       <c r="F166" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G166" s="8" t="s">
+      <c r="G166" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="45">
       <c r="A167" s="6">
         <v>311</v>
       </c>
@@ -6200,11 +5787,11 @@
       <c r="F167" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60">
       <c r="A168" s="6">
         <v>311</v>
       </c>
@@ -6223,11 +5810,11 @@
       <c r="F168" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G168" s="8" t="s">
+      <c r="G168" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="45">
       <c r="A169" s="6">
         <v>311</v>
       </c>
@@ -6246,11 +5833,11 @@
       <c r="F169" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="105">
       <c r="A170" s="3">
         <v>86</v>
       </c>
@@ -6269,12 +5856,12 @@
       <c r="F170" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="G170" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K170" s="10"/>
-    </row>
-    <row r="171" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" spans="1:11" ht="60">
       <c r="A171" s="3">
         <v>86</v>
       </c>
@@ -6293,12 +5880,12 @@
       <c r="F171" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="G171" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="K171" s="10"/>
-    </row>
-    <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K171" s="9"/>
+    </row>
+    <row r="172" spans="1:11" ht="45">
       <c r="A172" s="3">
         <v>86</v>
       </c>
@@ -6317,12 +5904,12 @@
       <c r="F172" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G172" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="K172" s="10"/>
-    </row>
-    <row r="173" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" spans="1:11" ht="105">
       <c r="A173" s="6">
         <v>86</v>
       </c>
@@ -6341,11 +5928,11 @@
       <c r="F173" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G173" s="8" t="s">
+      <c r="G173" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="90">
       <c r="A174" s="6">
         <v>86</v>
       </c>
@@ -6364,11 +5951,11 @@
       <c r="F174" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G174" s="8" t="s">
+      <c r="G174" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="105">
       <c r="A175" s="3">
         <v>306</v>
       </c>
@@ -6387,14 +5974,14 @@
       <c r="F175" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I175" s="10">
+      <c r="I175" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="120">
       <c r="A176" s="3">
         <v>306</v>
       </c>
@@ -6413,12 +6000,12 @@
       <c r="F176" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="G176" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="I176" s="10"/>
-    </row>
-    <row r="177" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="I176" s="9"/>
+    </row>
+    <row r="177" spans="1:10" ht="90">
       <c r="A177" s="3">
         <v>306</v>
       </c>
@@ -6437,12 +6024,12 @@
       <c r="F177" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I177" s="10"/>
-    </row>
-    <row r="178" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="I177" s="9"/>
+    </row>
+    <row r="178" spans="1:10" ht="75">
       <c r="A178" s="3">
         <v>306</v>
       </c>
@@ -6461,12 +6048,12 @@
       <c r="F178" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G178" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="I178" s="10"/>
-    </row>
-    <row r="179" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="I178" s="9"/>
+    </row>
+    <row r="179" spans="1:10" ht="60">
       <c r="A179" s="3">
         <v>306</v>
       </c>
@@ -6485,12 +6072,12 @@
       <c r="F179" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I179" s="10"/>
-    </row>
-    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I179" s="9"/>
+    </row>
+    <row r="180" spans="1:10" ht="30">
       <c r="A180" s="6">
         <v>311</v>
       </c>
@@ -6509,13 +6096,13 @@
       <c r="F180" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="H180" s="10"/>
-      <c r="J180" s="10"/>
-    </row>
-    <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H180" s="9"/>
+      <c r="J180" s="9"/>
+    </row>
+    <row r="181" spans="1:10" ht="45">
       <c r="A181" s="6">
         <v>311</v>
       </c>
@@ -6534,13 +6121,13 @@
       <c r="F181" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G181" s="8" t="s">
+      <c r="G181" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="H181" s="10"/>
-      <c r="J181" s="10"/>
-    </row>
-    <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H181" s="9"/>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="1:10" ht="60">
       <c r="A182" s="6">
         <v>311</v>
       </c>
@@ -6559,13 +6146,13 @@
       <c r="F182" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H182" s="10"/>
-      <c r="J182" s="10"/>
-    </row>
-    <row r="183" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="H182" s="9"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="183" spans="1:10" ht="105">
       <c r="A183" s="3">
         <v>306</v>
       </c>
@@ -6584,12 +6171,12 @@
       <c r="F183" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="G183" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="I183" s="10"/>
-    </row>
-    <row r="184" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="I183" s="9"/>
+    </row>
+    <row r="184" spans="1:10" ht="120">
       <c r="A184" s="6">
         <v>311</v>
       </c>
@@ -6608,17 +6195,17 @@
       <c r="F184" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G184" s="8" t="s">
+      <c r="G184" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="9">
         <v>1</v>
       </c>
-      <c r="J184" s="10">
+      <c r="J184" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="45">
       <c r="A185" s="6">
         <v>311</v>
       </c>
@@ -6637,13 +6224,13 @@
       <c r="F185" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G185" s="8" t="s">
+      <c r="G185" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H185" s="10"/>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H185" s="9"/>
+      <c r="J185" s="9"/>
+    </row>
+    <row r="186" spans="1:10" ht="45">
       <c r="A186" s="6">
         <v>311</v>
       </c>
@@ -6662,13 +6249,13 @@
       <c r="F186" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G186" s="8" t="s">
+      <c r="G186" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H186" s="10"/>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H186" s="9"/>
+      <c r="J186" s="9"/>
+    </row>
+    <row r="187" spans="1:10" ht="45">
       <c r="A187" s="6">
         <v>311</v>
       </c>
@@ -6687,13 +6274,13 @@
       <c r="F187" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G187" s="8" t="s">
+      <c r="G187" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="H187" s="10"/>
-      <c r="J187" s="10"/>
-    </row>
-    <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H187" s="9"/>
+      <c r="J187" s="9"/>
+    </row>
+    <row r="188" spans="1:10" ht="60">
       <c r="A188" s="6">
         <v>311</v>
       </c>
@@ -6712,13 +6299,13 @@
       <c r="F188" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G188" s="8" t="s">
+      <c r="G188" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="H188" s="10"/>
-      <c r="J188" s="10"/>
-    </row>
-    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H188" s="9"/>
+      <c r="J188" s="9"/>
+    </row>
+    <row r="189" spans="1:10" ht="60">
       <c r="A189" s="6">
         <v>311</v>
       </c>
@@ -6737,13 +6324,13 @@
       <c r="F189" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G189" s="8" t="s">
+      <c r="G189" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="H189" s="10"/>
-      <c r="J189" s="10"/>
-    </row>
-    <row r="190" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H189" s="9"/>
+      <c r="J189" s="9"/>
+    </row>
+    <row r="190" spans="1:10" ht="45">
       <c r="A190" s="6">
         <v>311</v>
       </c>
@@ -6762,13 +6349,13 @@
       <c r="F190" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G190" s="8" t="s">
+      <c r="G190" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="H190" s="10"/>
-      <c r="J190" s="10"/>
-    </row>
-    <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H190" s="9"/>
+      <c r="J190" s="9"/>
+    </row>
+    <row r="191" spans="1:10" ht="45">
       <c r="A191" s="6">
         <v>311</v>
       </c>
@@ -6787,13 +6374,13 @@
       <c r="F191" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G191" s="8" t="s">
+      <c r="G191" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="H191" s="10"/>
-      <c r="J191" s="10"/>
-    </row>
-    <row r="192" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H191" s="9"/>
+      <c r="J191" s="9"/>
+    </row>
+    <row r="192" spans="1:10" ht="45">
       <c r="A192" s="6">
         <v>311</v>
       </c>
@@ -6812,13 +6399,13 @@
       <c r="F192" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G192" s="8" t="s">
+      <c r="G192" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="H192" s="10"/>
-      <c r="J192" s="10"/>
-    </row>
-    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H192" s="9"/>
+      <c r="J192" s="9"/>
+    </row>
+    <row r="193" spans="1:10" ht="45">
       <c r="A193" s="6">
         <v>311</v>
       </c>
@@ -6837,13 +6424,13 @@
       <c r="F193" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G193" s="8" t="s">
+      <c r="G193" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="H193" s="10"/>
-      <c r="J193" s="10"/>
-    </row>
-    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H193" s="9"/>
+      <c r="J193" s="9"/>
+    </row>
+    <row r="194" spans="1:10" ht="60">
       <c r="A194" s="6">
         <v>311</v>
       </c>
@@ -6862,13 +6449,13 @@
       <c r="F194" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G194" s="8" t="s">
+      <c r="G194" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H194" s="10"/>
-      <c r="J194" s="10"/>
-    </row>
-    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H194" s="9"/>
+      <c r="J194" s="9"/>
+    </row>
+    <row r="195" spans="1:10" ht="60">
       <c r="A195" s="3">
         <v>311</v>
       </c>
@@ -6887,13 +6474,13 @@
       <c r="F195" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G195" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H195" s="10"/>
-      <c r="J195" s="10"/>
-    </row>
-    <row r="196" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H195" s="9"/>
+      <c r="J195" s="9"/>
+    </row>
+    <row r="196" spans="1:10" ht="45">
       <c r="A196" s="3">
         <v>311</v>
       </c>
@@ -6912,13 +6499,13 @@
       <c r="F196" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="G196" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H196" s="10"/>
-      <c r="J196" s="10"/>
-    </row>
-    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H196" s="9"/>
+      <c r="J196" s="9"/>
+    </row>
+    <row r="197" spans="1:10" ht="45">
       <c r="A197" s="3">
         <v>311</v>
       </c>
@@ -6937,13 +6524,13 @@
       <c r="F197" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="G197" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H197" s="10"/>
-      <c r="J197" s="10"/>
-    </row>
-    <row r="198" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H197" s="9"/>
+      <c r="J197" s="9"/>
+    </row>
+    <row r="198" spans="1:10" ht="45">
       <c r="A198" s="3">
         <v>311</v>
       </c>
@@ -6962,13 +6549,13 @@
       <c r="F198" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G198" s="5" t="s">
+      <c r="G198" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H198" s="10"/>
-      <c r="J198" s="10"/>
-    </row>
-    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H198" s="9"/>
+      <c r="J198" s="9"/>
+    </row>
+    <row r="199" spans="1:10" ht="60">
       <c r="A199" s="3">
         <v>311</v>
       </c>
@@ -6987,13 +6574,13 @@
       <c r="F199" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G199" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H199" s="10"/>
-      <c r="J199" s="10"/>
-    </row>
-    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H199" s="9"/>
+      <c r="J199" s="9"/>
+    </row>
+    <row r="200" spans="1:10" ht="60">
       <c r="A200" s="3">
         <v>311</v>
       </c>
@@ -7012,13 +6599,13 @@
       <c r="F200" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G200" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H200" s="10"/>
-      <c r="J200" s="10"/>
-    </row>
-    <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H200" s="9"/>
+      <c r="J200" s="9"/>
+    </row>
+    <row r="201" spans="1:10" ht="45">
       <c r="A201" s="3">
         <v>311</v>
       </c>
@@ -7037,13 +6624,13 @@
       <c r="F201" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G201" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="H201" s="10"/>
-      <c r="J201" s="10"/>
-    </row>
-    <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H201" s="9"/>
+      <c r="J201" s="9"/>
+    </row>
+    <row r="202" spans="1:10" ht="45">
       <c r="A202" s="3">
         <v>311</v>
       </c>
@@ -7062,13 +6649,13 @@
       <c r="F202" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="G202" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H202" s="10"/>
-      <c r="J202" s="10"/>
-    </row>
-    <row r="203" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H202" s="9"/>
+      <c r="J202" s="9"/>
+    </row>
+    <row r="203" spans="1:10" ht="60">
       <c r="A203" s="3">
         <v>311</v>
       </c>
@@ -7087,13 +6674,13 @@
       <c r="F203" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G203" s="5" t="s">
+      <c r="G203" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H203" s="10"/>
-      <c r="J203" s="10"/>
-    </row>
-    <row r="204" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="H203" s="9"/>
+      <c r="J203" s="9"/>
+    </row>
+    <row r="204" spans="1:10" ht="75">
       <c r="A204" s="6">
         <v>311</v>
       </c>
@@ -7112,12 +6699,12 @@
       <c r="F204" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G204" s="8" t="s">
+      <c r="G204" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J204" s="9"/>
+    </row>
+    <row r="205" spans="1:10" ht="45">
       <c r="A205" s="6">
         <v>311</v>
       </c>
@@ -7136,12 +6723,12 @@
       <c r="F205" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G205" s="8" t="s">
+      <c r="G205" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="J205" s="10"/>
-    </row>
-    <row r="206" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J205" s="9"/>
+    </row>
+    <row r="206" spans="1:10" ht="90">
       <c r="A206" s="6">
         <v>311</v>
       </c>
@@ -7160,12 +6747,12 @@
       <c r="F206" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G206" s="8" t="s">
+      <c r="G206" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="J206" s="10"/>
-    </row>
-    <row r="207" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J206" s="9"/>
+    </row>
+    <row r="207" spans="1:10" ht="60">
       <c r="A207" s="6">
         <v>311</v>
       </c>
@@ -7184,12 +6771,12 @@
       <c r="F207" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G207" s="8" t="s">
+      <c r="G207" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="J207" s="10"/>
-    </row>
-    <row r="208" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J207" s="9"/>
+    </row>
+    <row r="208" spans="1:10" ht="75">
       <c r="A208" s="6">
         <v>311</v>
       </c>
@@ -7208,12 +6795,12 @@
       <c r="F208" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="J208" s="10"/>
-    </row>
-    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J208" s="9"/>
+    </row>
+    <row r="209" spans="1:10" ht="30">
       <c r="A209" s="6">
         <v>311</v>
       </c>
@@ -7232,12 +6819,12 @@
       <c r="F209" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G209" s="8" t="s">
+      <c r="G209" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="J209" s="9"/>
-    </row>
-    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J209" s="10"/>
+    </row>
+    <row r="210" spans="1:10" ht="30">
       <c r="A210" s="3">
         <v>311</v>
       </c>
@@ -7256,11 +6843,11 @@
       <c r="F210" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G210" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="60">
       <c r="A211" s="3">
         <v>311</v>
       </c>
@@ -7279,11 +6866,11 @@
       <c r="F211" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G211" s="5" t="s">
+      <c r="G211" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="30">
       <c r="A212" s="3">
         <v>311</v>
       </c>
@@ -7302,11 +6889,11 @@
       <c r="F212" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G212" s="5" t="s">
+      <c r="G212" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="30">
       <c r="A213" s="3">
         <v>311</v>
       </c>
@@ -7325,11 +6912,11 @@
       <c r="F213" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G213" s="5" t="s">
+      <c r="G213" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="60">
       <c r="A214" s="6">
         <v>311</v>
       </c>
@@ -7348,11 +6935,11 @@
       <c r="F214" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G214" s="8" t="s">
+      <c r="G214" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="60">
       <c r="A215" s="6">
         <v>311</v>
       </c>
@@ -7371,11 +6958,11 @@
       <c r="F215" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G215" s="8" t="s">
+      <c r="G215" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="45">
       <c r="A216" s="6">
         <v>311</v>
       </c>
@@ -7394,11 +6981,11 @@
       <c r="F216" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G216" s="8" t="s">
+      <c r="G216" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="30">
       <c r="A217" s="6">
         <v>311</v>
       </c>
@@ -7417,11 +7004,11 @@
       <c r="F217" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G217" s="8" t="s">
+      <c r="G217" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="60">
       <c r="A218" s="6">
         <v>311</v>
       </c>
@@ -7440,11 +7027,11 @@
       <c r="F218" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G218" s="8" t="s">
+      <c r="G218" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="60">
       <c r="A219" s="6">
         <v>311</v>
       </c>
@@ -7463,11 +7050,11 @@
       <c r="F219" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G219" s="8" t="s">
+      <c r="G219" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="30">
       <c r="A220" s="6">
         <v>311</v>
       </c>
@@ -7486,11 +7073,11 @@
       <c r="F220" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G220" s="8" t="s">
+      <c r="G220" s="12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="45">
       <c r="A221" s="6">
         <v>311</v>
       </c>
@@ -7509,11 +7096,11 @@
       <c r="F221" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="G221" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="60">
       <c r="A222" s="6">
         <v>311</v>
       </c>
@@ -7532,11 +7119,11 @@
       <c r="F222" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G222" s="8" t="s">
+      <c r="G222" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="60">
       <c r="A223" s="6">
         <v>311</v>
       </c>
@@ -7555,11 +7142,11 @@
       <c r="F223" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G223" s="8" t="s">
+      <c r="G223" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="30">
       <c r="A224" s="6">
         <v>311</v>
       </c>
@@ -7578,11 +7165,11 @@
       <c r="F224" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G224" s="8" t="s">
+      <c r="G224" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="30">
       <c r="A225" s="3">
         <v>88</v>
       </c>
@@ -7601,11 +7188,11 @@
       <c r="F225" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G225" s="5" t="s">
+      <c r="G225" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30">
       <c r="A226" s="6">
         <v>86</v>
       </c>
@@ -7624,11 +7211,11 @@
       <c r="F226" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G226" s="8" t="s">
+      <c r="G226" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30">
       <c r="A227" s="3">
         <v>296</v>
       </c>
@@ -7647,11 +7234,11 @@
       <c r="F227" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G227" s="5" t="s">
+      <c r="G227" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="60">
       <c r="A228" s="6">
         <v>299</v>
       </c>
@@ -7670,20 +7257,20 @@
       <c r="F228" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G228" s="8" t="s">
+      <c r="G228" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H228" s="10">
+      <c r="H228" s="9">
         <v>1</v>
       </c>
-      <c r="J228" s="10">
+      <c r="J228" s="9">
         <v>1</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="30">
       <c r="A229" s="6">
         <v>299</v>
       </c>
@@ -7702,13 +7289,13 @@
       <c r="F229" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G229" s="8" t="s">
+      <c r="G229" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H229" s="10"/>
-      <c r="J229" s="10"/>
-    </row>
-    <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H229" s="9"/>
+      <c r="J229" s="9"/>
+    </row>
+    <row r="230" spans="1:11" ht="30">
       <c r="A230" s="3">
         <v>299</v>
       </c>
@@ -7727,13 +7314,13 @@
       <c r="F230" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G230" s="5" t="s">
+      <c r="G230" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H230" s="10"/>
-      <c r="J230" s="10"/>
-    </row>
-    <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H230" s="9"/>
+      <c r="J230" s="9"/>
+    </row>
+    <row r="231" spans="1:11" ht="30">
       <c r="A231" s="3">
         <v>299</v>
       </c>
@@ -7752,13 +7339,13 @@
       <c r="F231" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G231" s="5" t="s">
+      <c r="G231" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H231" s="10"/>
-      <c r="J231" s="10"/>
-    </row>
-    <row r="232" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H231" s="9"/>
+      <c r="J231" s="9"/>
+    </row>
+    <row r="232" spans="1:11" ht="45">
       <c r="A232" s="6">
         <v>299</v>
       </c>
@@ -7777,13 +7364,13 @@
       <c r="F232" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G232" s="8" t="s">
+      <c r="G232" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H232" s="10"/>
-      <c r="J232" s="10"/>
-    </row>
-    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H232" s="9"/>
+      <c r="J232" s="9"/>
+    </row>
+    <row r="233" spans="1:11" ht="30">
       <c r="A233" s="6">
         <v>299</v>
       </c>
@@ -7802,13 +7389,13 @@
       <c r="F233" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G233" s="8" t="s">
+      <c r="G233" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="H233" s="10"/>
-      <c r="J233" s="10"/>
-    </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="H233" s="9"/>
+      <c r="J233" s="9"/>
+    </row>
+    <row r="234" spans="1:11" ht="60">
       <c r="A234" s="6">
         <v>299</v>
       </c>
@@ -7827,13 +7414,13 @@
       <c r="F234" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G234" s="8" t="s">
+      <c r="G234" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H234" s="10"/>
-      <c r="J234" s="10"/>
-    </row>
-    <row r="235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="H234" s="9"/>
+      <c r="J234" s="9"/>
+    </row>
+    <row r="235" spans="1:11" ht="60">
       <c r="A235" s="6">
         <v>299</v>
       </c>
@@ -7852,13 +7439,13 @@
       <c r="F235" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G235" s="8" t="s">
+      <c r="G235" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H235" s="10"/>
-      <c r="J235" s="10"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H235" s="9"/>
+      <c r="J235" s="9"/>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="6">
         <v>299</v>
       </c>
@@ -7877,13 +7464,13 @@
       <c r="F236" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G236" s="8" t="s">
+      <c r="G236" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H236" s="10"/>
-      <c r="J236" s="10"/>
-    </row>
-    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="H236" s="9"/>
+      <c r="J236" s="9"/>
+    </row>
+    <row r="237" spans="1:11" ht="90">
       <c r="A237" s="6">
         <v>299</v>
       </c>
@@ -7902,13 +7489,13 @@
       <c r="F237" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G237" s="8" t="s">
+      <c r="G237" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="H237" s="10"/>
-      <c r="J237" s="10"/>
-    </row>
-    <row r="238" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H237" s="9"/>
+      <c r="J237" s="9"/>
+    </row>
+    <row r="238" spans="1:11" ht="75">
       <c r="A238" s="6">
         <v>299</v>
       </c>
@@ -7927,13 +7514,13 @@
       <c r="F238" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G238" s="8" t="s">
+      <c r="G238" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H238" s="10"/>
-      <c r="J238" s="10"/>
-    </row>
-    <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H238" s="9"/>
+      <c r="J238" s="9"/>
+    </row>
+    <row r="239" spans="1:11" ht="30">
       <c r="A239" s="3">
         <v>299</v>
       </c>
@@ -7952,13 +7539,13 @@
       <c r="F239" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G239" s="5" t="s">
+      <c r="G239" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H239" s="10"/>
-      <c r="J239" s="10"/>
-    </row>
-    <row r="240" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H239" s="9"/>
+      <c r="J239" s="9"/>
+    </row>
+    <row r="240" spans="1:11" ht="75">
       <c r="A240" s="3">
         <v>299</v>
       </c>
@@ -7977,13 +7564,13 @@
       <c r="F240" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G240" s="5" t="s">
+      <c r="G240" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H240" s="10"/>
-      <c r="J240" s="10"/>
-    </row>
-    <row r="241" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H240" s="9"/>
+      <c r="J240" s="9"/>
+    </row>
+    <row r="241" spans="1:10" ht="60">
       <c r="A241" s="3">
         <v>299</v>
       </c>
@@ -8002,13 +7589,13 @@
       <c r="F241" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G241" s="5" t="s">
+      <c r="G241" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H241" s="10"/>
-      <c r="J241" s="10"/>
-    </row>
-    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H241" s="9"/>
+      <c r="J241" s="9"/>
+    </row>
+    <row r="242" spans="1:10" ht="30">
       <c r="A242" s="3">
         <v>299</v>
       </c>
@@ -8027,13 +7614,13 @@
       <c r="F242" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G242" s="5" t="s">
+      <c r="G242" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H242" s="10"/>
-      <c r="J242" s="10"/>
-    </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H242" s="9"/>
+      <c r="J242" s="9"/>
+    </row>
+    <row r="243" spans="1:10" ht="30">
       <c r="A243" s="3">
         <v>299</v>
       </c>
@@ -8052,13 +7639,13 @@
       <c r="F243" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G243" s="5" t="s">
+      <c r="G243" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H243" s="10"/>
-      <c r="J243" s="10"/>
-    </row>
-    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H243" s="9"/>
+      <c r="J243" s="9"/>
+    </row>
+    <row r="244" spans="1:10" ht="30">
       <c r="A244" s="3">
         <v>299</v>
       </c>
@@ -8077,13 +7664,13 @@
       <c r="F244" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G244" s="5" t="s">
+      <c r="G244" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H244" s="10"/>
-      <c r="J244" s="10"/>
-    </row>
-    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H244" s="9"/>
+      <c r="J244" s="9"/>
+    </row>
+    <row r="245" spans="1:10" ht="30">
       <c r="A245" s="3">
         <v>299</v>
       </c>
@@ -8102,13 +7689,13 @@
       <c r="F245" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G245" s="5" t="s">
+      <c r="G245" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H245" s="10"/>
-      <c r="J245" s="10"/>
-    </row>
-    <row r="246" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H245" s="9"/>
+      <c r="J245" s="9"/>
+    </row>
+    <row r="246" spans="1:10" ht="60">
       <c r="A246" s="6">
         <v>299</v>
       </c>
@@ -8127,13 +7714,13 @@
       <c r="F246" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G246" s="8" t="s">
+      <c r="G246" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="H246" s="10"/>
-      <c r="J246" s="10"/>
-    </row>
-    <row r="247" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H246" s="9"/>
+      <c r="J246" s="9"/>
+    </row>
+    <row r="247" spans="1:10" ht="45">
       <c r="A247" s="6">
         <v>299</v>
       </c>
@@ -8152,13 +7739,13 @@
       <c r="F247" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G247" s="8" t="s">
+      <c r="G247" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="H247" s="10"/>
-      <c r="J247" s="10"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H247" s="9"/>
+      <c r="J247" s="9"/>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="6">
         <v>299</v>
       </c>
@@ -8177,13 +7764,13 @@
       <c r="F248" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G248" s="8" t="s">
+      <c r="G248" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="H248" s="10"/>
-      <c r="J248" s="10"/>
-    </row>
-    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H248" s="9"/>
+      <c r="J248" s="9"/>
+    </row>
+    <row r="249" spans="1:10" ht="45">
       <c r="A249" s="6">
         <v>299</v>
       </c>
@@ -8202,13 +7789,13 @@
       <c r="F249" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G249" s="8" t="s">
+      <c r="G249" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="H249" s="10"/>
-      <c r="J249" s="10"/>
-    </row>
-    <row r="250" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="H249" s="9"/>
+      <c r="J249" s="9"/>
+    </row>
+    <row r="250" spans="1:10" ht="105">
       <c r="A250" s="3">
         <v>299</v>
       </c>
@@ -8227,13 +7814,13 @@
       <c r="F250" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G250" s="5" t="s">
+      <c r="G250" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H250" s="10"/>
-      <c r="J250" s="10"/>
-    </row>
-    <row r="251" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H250" s="9"/>
+      <c r="J250" s="9"/>
+    </row>
+    <row r="251" spans="1:10" ht="30">
       <c r="A251" s="3">
         <v>299</v>
       </c>
@@ -8252,13 +7839,13 @@
       <c r="F251" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G251" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H251" s="10"/>
-      <c r="J251" s="10"/>
-    </row>
-    <row r="252" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G251" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H251" s="9"/>
+      <c r="J251" s="9"/>
+    </row>
+    <row r="252" spans="1:10" ht="30">
       <c r="A252" s="3">
         <v>299</v>
       </c>
@@ -8277,13 +7864,13 @@
       <c r="F252" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G252" s="5" t="s">
+      <c r="G252" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H252" s="10"/>
-      <c r="J252" s="10"/>
-    </row>
-    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H252" s="9"/>
+      <c r="J252" s="9"/>
+    </row>
+    <row r="253" spans="1:10" ht="30">
       <c r="A253" s="6">
         <v>299</v>
       </c>
@@ -8302,13 +7889,13 @@
       <c r="F253" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G253" s="8" t="s">
+      <c r="G253" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H253" s="10"/>
-      <c r="J253" s="10"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H253" s="9"/>
+      <c r="J253" s="9"/>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="6">
         <v>299</v>
       </c>
@@ -8327,13 +7914,13 @@
       <c r="F254" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G254" s="8" t="s">
+      <c r="G254" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="H254" s="10"/>
-      <c r="J254" s="10"/>
-    </row>
-    <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H254" s="9"/>
+      <c r="J254" s="9"/>
+    </row>
+    <row r="255" spans="1:10" ht="45">
       <c r="A255" s="6">
         <v>299</v>
       </c>
@@ -8352,13 +7939,13 @@
       <c r="F255" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G255" s="8" t="s">
+      <c r="G255" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H255" s="10"/>
-      <c r="J255" s="10"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H255" s="9"/>
+      <c r="J255" s="9"/>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="6">
         <v>299</v>
       </c>
@@ -8377,13 +7964,13 @@
       <c r="F256" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G256" s="8" t="s">
+      <c r="G256" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H256" s="10"/>
-      <c r="J256" s="10"/>
-    </row>
-    <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H256" s="9"/>
+      <c r="J256" s="9"/>
+    </row>
+    <row r="257" spans="1:10" ht="30">
       <c r="A257" s="6">
         <v>299</v>
       </c>
@@ -8402,13 +7989,13 @@
       <c r="F257" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G257" s="8" t="s">
+      <c r="G257" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="H257" s="10"/>
-      <c r="J257" s="10"/>
-    </row>
-    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H257" s="9"/>
+      <c r="J257" s="9"/>
+    </row>
+    <row r="258" spans="1:10" ht="45">
       <c r="A258" s="3">
         <v>299</v>
       </c>
@@ -8427,13 +8014,13 @@
       <c r="F258" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G258" s="5" t="s">
+      <c r="G258" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H258" s="10"/>
-      <c r="J258" s="10"/>
-    </row>
-    <row r="259" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H258" s="9"/>
+      <c r="J258" s="9"/>
+    </row>
+    <row r="259" spans="1:10" ht="60">
       <c r="A259" s="3">
         <v>299</v>
       </c>
@@ -8452,13 +8039,13 @@
       <c r="F259" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G259" s="5" t="s">
+      <c r="G259" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="H259" s="10"/>
-      <c r="J259" s="10"/>
-    </row>
-    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H259" s="9"/>
+      <c r="J259" s="9"/>
+    </row>
+    <row r="260" spans="1:10" ht="30">
       <c r="A260" s="3">
         <v>299</v>
       </c>
@@ -8477,13 +8064,13 @@
       <c r="F260" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G260" s="5" t="s">
+      <c r="G260" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="H260" s="10"/>
-      <c r="J260" s="10"/>
-    </row>
-    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H260" s="9"/>
+      <c r="J260" s="9"/>
+    </row>
+    <row r="261" spans="1:10" ht="30">
       <c r="A261" s="3">
         <v>299</v>
       </c>
@@ -8502,13 +8089,13 @@
       <c r="F261" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G261" s="5" t="s">
+      <c r="G261" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H261" s="10"/>
-      <c r="J261" s="10"/>
-    </row>
-    <row r="262" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H261" s="9"/>
+      <c r="J261" s="9"/>
+    </row>
+    <row r="262" spans="1:10" ht="60">
       <c r="A262" s="6">
         <v>299</v>
       </c>
@@ -8527,13 +8114,13 @@
       <c r="F262" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G262" s="8" t="s">
+      <c r="G262" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="H262" s="10"/>
-      <c r="J262" s="10"/>
-    </row>
-    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H262" s="9"/>
+      <c r="J262" s="9"/>
+    </row>
+    <row r="263" spans="1:10" ht="30">
       <c r="A263" s="6">
         <v>299</v>
       </c>
@@ -8552,13 +8139,13 @@
       <c r="F263" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G263" s="8" t="s">
+      <c r="G263" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="H263" s="10"/>
-      <c r="J263" s="10"/>
-    </row>
-    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H263" s="9"/>
+      <c r="J263" s="9"/>
+    </row>
+    <row r="264" spans="1:10" ht="30">
       <c r="A264" s="6">
         <v>299</v>
       </c>
@@ -8577,13 +8164,13 @@
       <c r="F264" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G264" s="8" t="s">
+      <c r="G264" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="H264" s="10"/>
-      <c r="J264" s="10"/>
-    </row>
-    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H264" s="9"/>
+      <c r="J264" s="9"/>
+    </row>
+    <row r="265" spans="1:10" ht="30">
       <c r="A265" s="6">
         <v>299</v>
       </c>
@@ -8602,13 +8189,13 @@
       <c r="F265" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G265" s="8" t="s">
+      <c r="G265" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="H265" s="10"/>
-      <c r="J265" s="10"/>
-    </row>
-    <row r="266" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H265" s="9"/>
+      <c r="J265" s="9"/>
+    </row>
+    <row r="266" spans="1:10" ht="30">
       <c r="A266" s="6">
         <v>299</v>
       </c>
@@ -8627,13 +8214,13 @@
       <c r="F266" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G266" s="8" t="s">
+      <c r="G266" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="H266" s="10"/>
-      <c r="J266" s="10"/>
-    </row>
-    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H266" s="9"/>
+      <c r="J266" s="9"/>
+    </row>
+    <row r="267" spans="1:10" ht="45">
       <c r="A267" s="6">
         <v>299</v>
       </c>
@@ -8652,13 +8239,13 @@
       <c r="F267" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G267" s="8" t="s">
+      <c r="G267" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H267" s="10"/>
-      <c r="J267" s="10"/>
-    </row>
-    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H267" s="9"/>
+      <c r="J267" s="9"/>
+    </row>
+    <row r="268" spans="1:10" ht="30">
       <c r="A268" s="6">
         <v>299</v>
       </c>
@@ -8677,13 +8264,13 @@
       <c r="F268" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G268" s="8" t="s">
+      <c r="G268" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H268" s="10"/>
-      <c r="J268" s="10"/>
-    </row>
-    <row r="269" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H268" s="9"/>
+      <c r="J268" s="9"/>
+    </row>
+    <row r="269" spans="1:10" ht="30">
       <c r="A269" s="6">
         <v>299</v>
       </c>
@@ -8702,13 +8289,13 @@
       <c r="F269" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G269" s="8" t="s">
+      <c r="G269" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H269" s="10"/>
-      <c r="J269" s="10"/>
-    </row>
-    <row r="270" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H269" s="9"/>
+      <c r="J269" s="9"/>
+    </row>
+    <row r="270" spans="1:10" ht="30">
       <c r="A270" s="6">
         <v>299</v>
       </c>
@@ -8727,13 +8314,13 @@
       <c r="F270" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G270" s="8" t="s">
+      <c r="G270" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="H270" s="10"/>
-      <c r="J270" s="10"/>
-    </row>
-    <row r="271" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H270" s="9"/>
+      <c r="J270" s="9"/>
+    </row>
+    <row r="271" spans="1:10" ht="30">
       <c r="A271" s="3">
         <v>299</v>
       </c>
@@ -8752,13 +8339,13 @@
       <c r="F271" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G271" s="5" t="s">
+      <c r="G271" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H271" s="10"/>
-      <c r="J271" s="10"/>
-    </row>
-    <row r="272" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H271" s="9"/>
+      <c r="J271" s="9"/>
+    </row>
+    <row r="272" spans="1:10" ht="45">
       <c r="A272" s="6">
         <v>299</v>
       </c>
@@ -8777,13 +8364,13 @@
       <c r="F272" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G272" s="8" t="s">
+      <c r="G272" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="H272" s="10"/>
-      <c r="J272" s="10"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H272" s="9"/>
+      <c r="J272" s="9"/>
+    </row>
+    <row r="273" spans="1:10">
       <c r="A273" s="6">
         <v>299</v>
       </c>
@@ -8802,13 +8389,13 @@
       <c r="F273" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G273" s="8" t="s">
+      <c r="G273" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="H273" s="10"/>
-      <c r="J273" s="10"/>
-    </row>
-    <row r="274" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H273" s="9"/>
+      <c r="J273" s="9"/>
+    </row>
+    <row r="274" spans="1:10" ht="30">
       <c r="A274" s="6">
         <v>299</v>
       </c>
@@ -8827,13 +8414,13 @@
       <c r="F274" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G274" s="8" t="s">
+      <c r="G274" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="H274" s="10"/>
-      <c r="J274" s="10"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H274" s="9"/>
+      <c r="J274" s="9"/>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="6">
         <v>299</v>
       </c>
@@ -8852,13 +8439,13 @@
       <c r="F275" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G275" s="8" t="s">
+      <c r="G275" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H275" s="10"/>
-      <c r="J275" s="10"/>
-    </row>
-    <row r="276" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H275" s="9"/>
+      <c r="J275" s="9"/>
+    </row>
+    <row r="276" spans="1:10" ht="45">
       <c r="A276" s="3">
         <v>299</v>
       </c>
@@ -8877,13 +8464,13 @@
       <c r="F276" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G276" s="5" t="s">
+      <c r="G276" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H276" s="10"/>
-      <c r="J276" s="10"/>
-    </row>
-    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H276" s="9"/>
+      <c r="J276" s="9"/>
+    </row>
+    <row r="277" spans="1:10" ht="45">
       <c r="A277" s="3">
         <v>299</v>
       </c>
@@ -8902,13 +8489,13 @@
       <c r="F277" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G277" s="5" t="s">
+      <c r="G277" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H277" s="10"/>
-      <c r="J277" s="10"/>
-    </row>
-    <row r="278" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H277" s="9"/>
+      <c r="J277" s="9"/>
+    </row>
+    <row r="278" spans="1:10" ht="30">
       <c r="A278" s="3">
         <v>299</v>
       </c>
@@ -8927,13 +8514,13 @@
       <c r="F278" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G278" s="5" t="s">
+      <c r="G278" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H278" s="10"/>
-      <c r="J278" s="10"/>
-    </row>
-    <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H278" s="9"/>
+      <c r="J278" s="9"/>
+    </row>
+    <row r="279" spans="1:10" ht="30">
       <c r="A279" s="3">
         <v>299</v>
       </c>
@@ -8952,13 +8539,13 @@
       <c r="F279" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G279" s="5" t="s">
+      <c r="G279" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H279" s="10"/>
-      <c r="J279" s="10"/>
-    </row>
-    <row r="280" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H279" s="9"/>
+      <c r="J279" s="9"/>
+    </row>
+    <row r="280" spans="1:10" ht="30">
       <c r="A280" s="6">
         <v>299</v>
       </c>
@@ -8977,13 +8564,13 @@
       <c r="F280" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G280" s="8" t="s">
+      <c r="G280" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="H280" s="10"/>
-      <c r="J280" s="10"/>
-    </row>
-    <row r="281" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H280" s="9"/>
+      <c r="J280" s="9"/>
+    </row>
+    <row r="281" spans="1:10" ht="60">
       <c r="A281" s="6">
         <v>299</v>
       </c>
@@ -9002,13 +8589,13 @@
       <c r="F281" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G281" s="8" t="s">
+      <c r="G281" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="H281" s="10"/>
-      <c r="J281" s="10"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H281" s="9"/>
+      <c r="J281" s="9"/>
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="6">
         <v>299</v>
       </c>
@@ -9027,13 +8614,13 @@
       <c r="F282" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G282" s="8" t="s">
+      <c r="G282" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="H282" s="10"/>
-      <c r="J282" s="10"/>
-    </row>
-    <row r="283" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H282" s="9"/>
+      <c r="J282" s="9"/>
+    </row>
+    <row r="283" spans="1:10" ht="30">
       <c r="A283" s="6">
         <v>299</v>
       </c>
@@ -9052,13 +8639,13 @@
       <c r="F283" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G283" s="8" t="s">
+      <c r="G283" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H283" s="10"/>
-      <c r="J283" s="10"/>
-    </row>
-    <row r="284" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H283" s="9"/>
+      <c r="J283" s="9"/>
+    </row>
+    <row r="284" spans="1:10" ht="30">
       <c r="A284" s="6">
         <v>299</v>
       </c>
@@ -9077,13 +8664,13 @@
       <c r="F284" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G284" s="8" t="s">
+      <c r="G284" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="H284" s="10"/>
-      <c r="J284" s="10"/>
-    </row>
-    <row r="285" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H284" s="9"/>
+      <c r="J284" s="9"/>
+    </row>
+    <row r="285" spans="1:10" ht="30">
       <c r="A285" s="3">
         <v>299</v>
       </c>
@@ -9102,13 +8689,13 @@
       <c r="F285" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G285" s="5" t="s">
+      <c r="G285" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H285" s="10"/>
-      <c r="J285" s="10"/>
-    </row>
-    <row r="286" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H285" s="9"/>
+      <c r="J285" s="9"/>
+    </row>
+    <row r="286" spans="1:10" ht="45">
       <c r="A286" s="6">
         <v>299</v>
       </c>
@@ -9127,13 +8714,13 @@
       <c r="F286" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G286" s="8" t="s">
+      <c r="G286" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H286" s="10"/>
-      <c r="J286" s="10"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H286" s="9"/>
+      <c r="J286" s="9"/>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="6">
         <v>299</v>
       </c>
@@ -9152,13 +8739,13 @@
       <c r="F287" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G287" s="8" t="s">
+      <c r="G287" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="H287" s="10"/>
-      <c r="J287" s="10"/>
-    </row>
-    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H287" s="9"/>
+      <c r="J287" s="9"/>
+    </row>
+    <row r="288" spans="1:10" ht="30">
       <c r="A288" s="6">
         <v>299</v>
       </c>
@@ -9177,13 +8764,13 @@
       <c r="F288" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G288" s="8" t="s">
+      <c r="G288" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H288" s="10"/>
-      <c r="J288" s="10"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H288" s="9"/>
+      <c r="J288" s="9"/>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="6">
         <v>299</v>
       </c>
@@ -9202,13 +8789,13 @@
       <c r="F289" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G289" s="8" t="s">
+      <c r="G289" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H289" s="10"/>
-      <c r="J289" s="10"/>
-    </row>
-    <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H289" s="9"/>
+      <c r="J289" s="9"/>
+    </row>
+    <row r="290" spans="1:10" ht="30">
       <c r="A290" s="6">
         <v>299</v>
       </c>
@@ -9227,13 +8814,13 @@
       <c r="F290" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G290" s="8" t="s">
+      <c r="G290" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H290" s="10"/>
-      <c r="J290" s="10"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H290" s="9"/>
+      <c r="J290" s="9"/>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="6">
         <v>299</v>
       </c>
@@ -9252,13 +8839,13 @@
       <c r="F291" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G291" s="8" t="s">
+      <c r="G291" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="H291" s="10"/>
-      <c r="J291" s="10"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H291" s="9"/>
+      <c r="J291" s="9"/>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="6">
         <v>299</v>
       </c>
@@ -9277,13 +8864,13 @@
       <c r="F292" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G292" s="8" t="s">
+      <c r="G292" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H292" s="10"/>
-      <c r="J292" s="10"/>
-    </row>
-    <row r="293" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H292" s="9"/>
+      <c r="J292" s="9"/>
+    </row>
+    <row r="293" spans="1:10" ht="45">
       <c r="A293" s="3">
         <v>299</v>
       </c>
@@ -9302,13 +8889,13 @@
       <c r="F293" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G293" s="5" t="s">
+      <c r="G293" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H293" s="10"/>
-      <c r="J293" s="10"/>
-    </row>
-    <row r="294" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H293" s="9"/>
+      <c r="J293" s="9"/>
+    </row>
+    <row r="294" spans="1:10" ht="60">
       <c r="A294" s="3">
         <v>299</v>
       </c>
@@ -9327,13 +8914,13 @@
       <c r="F294" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G294" s="5" t="s">
+      <c r="G294" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="H294" s="10"/>
-      <c r="J294" s="10"/>
-    </row>
-    <row r="295" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H294" s="9"/>
+      <c r="J294" s="9"/>
+    </row>
+    <row r="295" spans="1:10" ht="45">
       <c r="A295" s="3">
         <v>299</v>
       </c>
@@ -9352,13 +8939,13 @@
       <c r="F295" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G295" s="5" t="s">
+      <c r="G295" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="H295" s="10"/>
-      <c r="J295" s="10"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H295" s="9"/>
+      <c r="J295" s="9"/>
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="3">
         <v>299</v>
       </c>
@@ -9377,13 +8964,13 @@
       <c r="F296" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G296" s="5" t="s">
+      <c r="G296" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H296" s="10"/>
-      <c r="J296" s="10"/>
-    </row>
-    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H296" s="9"/>
+      <c r="J296" s="9"/>
+    </row>
+    <row r="297" spans="1:10" ht="30">
       <c r="A297" s="3">
         <v>299</v>
       </c>
@@ -9402,13 +8989,13 @@
       <c r="F297" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G297" s="5" t="s">
+      <c r="G297" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H297" s="10"/>
-      <c r="J297" s="10"/>
-    </row>
-    <row r="298" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H297" s="9"/>
+      <c r="J297" s="9"/>
+    </row>
+    <row r="298" spans="1:10" ht="45">
       <c r="A298" s="3">
         <v>299</v>
       </c>
@@ -9427,13 +9014,13 @@
       <c r="F298" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G298" s="5" t="s">
+      <c r="G298" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H298" s="10"/>
-      <c r="J298" s="10"/>
-    </row>
-    <row r="299" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H298" s="9"/>
+      <c r="J298" s="9"/>
+    </row>
+    <row r="299" spans="1:10" ht="30">
       <c r="A299" s="6">
         <v>299</v>
       </c>
@@ -9452,13 +9039,13 @@
       <c r="F299" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G299" s="8" t="s">
+      <c r="G299" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="H299" s="10"/>
-      <c r="J299" s="10"/>
-    </row>
-    <row r="300" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H299" s="9"/>
+      <c r="J299" s="9"/>
+    </row>
+    <row r="300" spans="1:10" ht="30">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -9477,13 +9064,13 @@
       <c r="F300" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G300" s="8" t="s">
+      <c r="G300" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="H300" s="10"/>
-      <c r="J300" s="10"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H300" s="9"/>
+      <c r="J300" s="9"/>
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="6">
         <v>299</v>
       </c>
@@ -9502,13 +9089,13 @@
       <c r="F301" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G301" s="8" t="s">
+      <c r="G301" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="H301" s="10"/>
-      <c r="J301" s="10"/>
-    </row>
-    <row r="302" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H301" s="9"/>
+      <c r="J301" s="9"/>
+    </row>
+    <row r="302" spans="1:10" ht="45">
       <c r="A302" s="6">
         <v>299</v>
       </c>
@@ -9527,13 +9114,13 @@
       <c r="F302" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G302" s="8" t="s">
+      <c r="G302" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="H302" s="10"/>
-      <c r="J302" s="10"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H302" s="9"/>
+      <c r="J302" s="9"/>
+    </row>
+    <row r="303" spans="1:10">
       <c r="A303" s="6">
         <v>299</v>
       </c>
@@ -9552,13 +9139,13 @@
       <c r="F303" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G303" s="8" t="s">
+      <c r="G303" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H303" s="10"/>
-      <c r="J303" s="10"/>
-    </row>
-    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H303" s="9"/>
+      <c r="J303" s="9"/>
+    </row>
+    <row r="304" spans="1:10" ht="30">
       <c r="A304" s="6">
         <v>299</v>
       </c>
@@ -9577,13 +9164,13 @@
       <c r="F304" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G304" s="8" t="s">
+      <c r="G304" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="H304" s="10"/>
-      <c r="J304" s="10"/>
-    </row>
-    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H304" s="9"/>
+      <c r="J304" s="9"/>
+    </row>
+    <row r="305" spans="1:11" ht="45">
       <c r="A305" s="6">
         <v>299</v>
       </c>
@@ -9602,13 +9189,13 @@
       <c r="F305" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G305" s="8" t="s">
+      <c r="G305" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H305" s="10"/>
-      <c r="J305" s="10"/>
-    </row>
-    <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H305" s="9"/>
+      <c r="J305" s="9"/>
+    </row>
+    <row r="306" spans="1:11" ht="30">
       <c r="A306" s="3">
         <v>299</v>
       </c>
@@ -9627,13 +9214,13 @@
       <c r="F306" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G306" s="5" t="s">
+      <c r="G306" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="H306" s="10"/>
-      <c r="J306" s="10"/>
-    </row>
-    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H306" s="9"/>
+      <c r="J306" s="9"/>
+    </row>
+    <row r="307" spans="1:11" ht="30">
       <c r="A307" s="3">
         <v>299</v>
       </c>
@@ -9652,13 +9239,13 @@
       <c r="F307" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G307" s="5" t="s">
+      <c r="G307" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="H307" s="10"/>
-      <c r="J307" s="10"/>
-    </row>
-    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H307" s="9"/>
+      <c r="J307" s="9"/>
+    </row>
+    <row r="308" spans="1:11" ht="30">
       <c r="A308" s="3">
         <v>299</v>
       </c>
@@ -9677,13 +9264,13 @@
       <c r="F308" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G308" s="5" t="s">
+      <c r="G308" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H308" s="10"/>
-      <c r="J308" s="10"/>
-    </row>
-    <row r="309" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="H308" s="9"/>
+      <c r="J308" s="9"/>
+    </row>
+    <row r="309" spans="1:11" ht="90">
       <c r="A309" s="6">
         <v>299</v>
       </c>
@@ -9702,13 +9289,13 @@
       <c r="F309" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G309" s="8" t="s">
+      <c r="G309" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="J309" s="10"/>
-      <c r="K309" s="10"/>
-    </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J309" s="9"/>
+      <c r="K309" s="9"/>
+    </row>
+    <row r="310" spans="1:11" ht="45">
       <c r="A310" s="6">
         <v>299</v>
       </c>
@@ -9727,13 +9314,13 @@
       <c r="F310" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G310" s="8" t="s">
+      <c r="G310" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="J310" s="10"/>
-      <c r="K310" s="10"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J310" s="9"/>
+      <c r="K310" s="9"/>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="3">
         <v>299</v>
       </c>
@@ -9752,13 +9339,13 @@
       <c r="F311" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G311" s="5" t="s">
+      <c r="G311" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="J311" s="10"/>
-      <c r="K311" s="10"/>
-    </row>
-    <row r="312" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J311" s="9"/>
+      <c r="K311" s="9"/>
+    </row>
+    <row r="312" spans="1:11" ht="45">
       <c r="A312" s="3">
         <v>299</v>
       </c>
@@ -9777,13 +9364,13 @@
       <c r="F312" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G312" s="5" t="s">
+      <c r="G312" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="J312" s="10"/>
-      <c r="K312" s="10"/>
-    </row>
-    <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J312" s="9"/>
+      <c r="K312" s="9"/>
+    </row>
+    <row r="313" spans="1:11" ht="30">
       <c r="A313" s="3">
         <v>299</v>
       </c>
@@ -9802,13 +9389,13 @@
       <c r="F313" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G313" s="5" t="s">
+      <c r="G313" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J313" s="10"/>
-      <c r="K313" s="10"/>
-    </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
+    </row>
+    <row r="314" spans="1:11" ht="30">
       <c r="A314" s="3">
         <v>299</v>
       </c>
@@ -9827,13 +9414,13 @@
       <c r="F314" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G314" s="5" t="s">
+      <c r="G314" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="J314" s="10"/>
-      <c r="K314" s="10"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+    </row>
+    <row r="315" spans="1:11">
       <c r="A315" s="3">
         <v>299</v>
       </c>
@@ -9852,13 +9439,13 @@
       <c r="F315" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G315" s="5" t="s">
+      <c r="G315" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="J315" s="10"/>
-      <c r="K315" s="10"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+    </row>
+    <row r="316" spans="1:11">
       <c r="A316" s="3">
         <v>299</v>
       </c>
@@ -9877,13 +9464,13 @@
       <c r="F316" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G316" s="5" t="s">
+      <c r="G316" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J316" s="10"/>
-      <c r="K316" s="10"/>
-    </row>
-    <row r="317" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J316" s="9"/>
+      <c r="K316" s="9"/>
+    </row>
+    <row r="317" spans="1:11" ht="60">
       <c r="A317" s="6">
         <v>299</v>
       </c>
@@ -9902,13 +9489,13 @@
       <c r="F317" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G317" s="8" t="s">
+      <c r="G317" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="J317" s="10"/>
-      <c r="K317" s="10"/>
-    </row>
-    <row r="318" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J317" s="9"/>
+      <c r="K317" s="9"/>
+    </row>
+    <row r="318" spans="1:11" ht="45">
       <c r="A318" s="6">
         <v>299</v>
       </c>
@@ -9927,13 +9514,13 @@
       <c r="F318" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G318" s="8" t="s">
+      <c r="G318" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="J318" s="10"/>
-      <c r="K318" s="10"/>
-    </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J318" s="9"/>
+      <c r="K318" s="9"/>
+    </row>
+    <row r="319" spans="1:11" ht="45">
       <c r="A319" s="6">
         <v>299</v>
       </c>
@@ -9952,13 +9539,13 @@
       <c r="F319" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G319" s="8" t="s">
+      <c r="G319" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="J319" s="10"/>
-      <c r="K319" s="10"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="9"/>
+      <c r="K319" s="9"/>
+    </row>
+    <row r="320" spans="1:11">
       <c r="A320" s="6">
         <v>299</v>
       </c>
@@ -9977,13 +9564,13 @@
       <c r="F320" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G320" s="8" t="s">
+      <c r="G320" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="J320" s="10"/>
-      <c r="K320" s="10"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J320" s="9"/>
+      <c r="K320" s="9"/>
+    </row>
+    <row r="321" spans="1:11">
       <c r="A321" s="6">
         <v>299</v>
       </c>
@@ -10002,13 +9589,13 @@
       <c r="F321" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G321" s="8" t="s">
+      <c r="G321" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="J321" s="10"/>
-      <c r="K321" s="10"/>
-    </row>
-    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J321" s="9"/>
+      <c r="K321" s="9"/>
+    </row>
+    <row r="322" spans="1:11" ht="60">
       <c r="A322" s="3">
         <v>299</v>
       </c>
@@ -10027,13 +9614,13 @@
       <c r="F322" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G322" s="5" t="s">
+      <c r="G322" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="J322" s="10"/>
-      <c r="K322" s="10"/>
-    </row>
-    <row r="323" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J322" s="9"/>
+      <c r="K322" s="9"/>
+    </row>
+    <row r="323" spans="1:11" ht="90">
       <c r="A323" s="3">
         <v>299</v>
       </c>
@@ -10052,13 +9639,13 @@
       <c r="F323" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G323" s="5" t="s">
+      <c r="G323" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="J323" s="10"/>
-      <c r="K323" s="10"/>
-    </row>
-    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J323" s="9"/>
+      <c r="K323" s="9"/>
+    </row>
+    <row r="324" spans="1:11" ht="45">
       <c r="A324" s="3">
         <v>299</v>
       </c>
@@ -10077,13 +9664,13 @@
       <c r="F324" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G324" s="5" t="s">
+      <c r="G324" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="J324" s="10"/>
-      <c r="K324" s="10"/>
-    </row>
-    <row r="325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J324" s="9"/>
+      <c r="K324" s="9"/>
+    </row>
+    <row r="325" spans="1:11" ht="30">
       <c r="A325" s="3">
         <v>299</v>
       </c>
@@ -10102,13 +9689,13 @@
       <c r="F325" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G325" s="5" t="s">
+      <c r="G325" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="J325" s="10"/>
-      <c r="K325" s="10"/>
-    </row>
-    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J325" s="9"/>
+      <c r="K325" s="9"/>
+    </row>
+    <row r="326" spans="1:11" ht="45">
       <c r="A326" s="3">
         <v>299</v>
       </c>
@@ -10127,13 +9714,13 @@
       <c r="F326" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G326" s="5" t="s">
+      <c r="G326" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="J326" s="10"/>
-      <c r="K326" s="10"/>
-    </row>
-    <row r="327" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J326" s="9"/>
+      <c r="K326" s="9"/>
+    </row>
+    <row r="327" spans="1:11" ht="60">
       <c r="A327" s="6">
         <v>311</v>
       </c>
@@ -10152,11 +9739,11 @@
       <c r="F327" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G327" s="8" t="s">
+      <c r="G327" s="12" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="45">
       <c r="A328" s="6">
         <v>311</v>
       </c>
@@ -10175,11 +9762,11 @@
       <c r="F328" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G328" s="8" t="s">
+      <c r="G328" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90">
       <c r="A329" s="6">
         <v>311</v>
       </c>
@@ -10198,11 +9785,11 @@
       <c r="F329" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G329" s="8" t="s">
+      <c r="G329" s="12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="75">
       <c r="A330" s="6">
         <v>311</v>
       </c>
@@ -10221,11 +9808,11 @@
       <c r="F330" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G330" s="8" t="s">
+      <c r="G330" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="75">
       <c r="A331" s="6">
         <v>311</v>
       </c>
@@ -10244,11 +9831,11 @@
       <c r="F331" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G331" s="8" t="s">
+      <c r="G331" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="105">
       <c r="A332" s="6">
         <v>311</v>
       </c>
@@ -10267,11 +9854,11 @@
       <c r="F332" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G332" s="8" t="s">
+      <c r="G332" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="75">
       <c r="A333" s="3">
         <v>311</v>
       </c>
@@ -10290,11 +9877,11 @@
       <c r="F333" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G333" s="5" t="s">
+      <c r="G333" s="11" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45">
       <c r="A334" s="3">
         <v>311</v>
       </c>
@@ -10313,11 +9900,11 @@
       <c r="F334" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G334" s="5" t="s">
+      <c r="G334" s="11" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="45">
       <c r="A335" s="3">
         <v>311</v>
       </c>
@@ -10336,11 +9923,11 @@
       <c r="F335" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G335" s="5" t="s">
+      <c r="G335" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="90">
       <c r="A336" s="6">
         <v>299</v>
       </c>
@@ -10359,13 +9946,13 @@
       <c r="F336" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G336" s="8" t="s">
+      <c r="G336" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="J336" s="10"/>
-      <c r="K336" s="10"/>
-    </row>
-    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J336" s="9"/>
+      <c r="K336" s="9"/>
+    </row>
+    <row r="337" spans="1:11" ht="30">
       <c r="A337" s="6">
         <v>299</v>
       </c>
@@ -10384,13 +9971,13 @@
       <c r="F337" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G337" s="8" t="s">
+      <c r="G337" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J337" s="10"/>
-      <c r="K337" s="10"/>
-    </row>
-    <row r="338" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J337" s="9"/>
+      <c r="K337" s="9"/>
+    </row>
+    <row r="338" spans="1:11" ht="45">
       <c r="A338" s="6">
         <v>299</v>
       </c>
@@ -10409,13 +9996,13 @@
       <c r="F338" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G338" s="8" t="s">
+      <c r="G338" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="J338" s="10"/>
-      <c r="K338" s="10"/>
-    </row>
-    <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J338" s="9"/>
+      <c r="K338" s="9"/>
+    </row>
+    <row r="339" spans="1:11" ht="30">
       <c r="A339" s="6">
         <v>299</v>
       </c>
@@ -10434,13 +10021,13 @@
       <c r="F339" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G339" s="8" t="s">
+      <c r="G339" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="J339" s="10"/>
-      <c r="K339" s="10"/>
-    </row>
-    <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J339" s="9"/>
+      <c r="K339" s="9"/>
+    </row>
+    <row r="340" spans="1:11" ht="30">
       <c r="A340" s="6">
         <v>299</v>
       </c>
@@ -10459,13 +10046,13 @@
       <c r="F340" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G340" s="8" t="s">
+      <c r="G340" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J340" s="10"/>
-      <c r="K340" s="10"/>
-    </row>
-    <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J340" s="9"/>
+      <c r="K340" s="9"/>
+    </row>
+    <row r="341" spans="1:11" ht="30">
       <c r="A341" s="3">
         <v>299</v>
       </c>
@@ -10484,13 +10071,13 @@
       <c r="F341" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G341" s="5" t="s">
+      <c r="G341" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="J341" s="10"/>
-      <c r="K341" s="10"/>
-    </row>
-    <row r="342" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J341" s="9"/>
+      <c r="K341" s="9"/>
+    </row>
+    <row r="342" spans="1:11" ht="75">
       <c r="A342" s="3">
         <v>299</v>
       </c>
@@ -10509,13 +10096,13 @@
       <c r="F342" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G342" s="5" t="s">
+      <c r="G342" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="J342" s="10"/>
-      <c r="K342" s="10"/>
-    </row>
-    <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J342" s="9"/>
+      <c r="K342" s="9"/>
+    </row>
+    <row r="343" spans="1:11" ht="30">
       <c r="A343" s="3">
         <v>299</v>
       </c>
@@ -10534,13 +10121,13 @@
       <c r="F343" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G343" s="5" t="s">
+      <c r="G343" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="J343" s="10"/>
-      <c r="K343" s="10"/>
-    </row>
-    <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J343" s="9"/>
+      <c r="K343" s="9"/>
+    </row>
+    <row r="344" spans="1:11" ht="30">
       <c r="A344" s="3">
         <v>299</v>
       </c>
@@ -10559,13 +10146,13 @@
       <c r="F344" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G344" s="5" t="s">
+      <c r="G344" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="J344" s="10"/>
-      <c r="K344" s="10"/>
-    </row>
-    <row r="345" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J344" s="9"/>
+      <c r="K344" s="9"/>
+    </row>
+    <row r="345" spans="1:11" ht="45">
       <c r="A345" s="3">
         <v>299</v>
       </c>
@@ -10584,13 +10171,13 @@
       <c r="F345" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G345" s="5" t="s">
+      <c r="G345" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="J345" s="10"/>
-      <c r="K345" s="10"/>
-    </row>
-    <row r="346" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J345" s="9"/>
+      <c r="K345" s="9"/>
+    </row>
+    <row r="346" spans="1:11" ht="45">
       <c r="A346" s="3">
         <v>299</v>
       </c>
@@ -10609,13 +10196,13 @@
       <c r="F346" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G346" s="5" t="s">
+      <c r="G346" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="J346" s="10"/>
-      <c r="K346" s="10"/>
-    </row>
-    <row r="347" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J346" s="9"/>
+      <c r="K346" s="9"/>
+    </row>
+    <row r="347" spans="1:11" ht="45">
       <c r="A347" s="6">
         <v>299</v>
       </c>
@@ -10634,13 +10221,13 @@
       <c r="F347" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G347" s="8" t="s">
+      <c r="G347" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="J347" s="10"/>
-      <c r="K347" s="10"/>
-    </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J347" s="9"/>
+      <c r="K347" s="9"/>
+    </row>
+    <row r="348" spans="1:11" ht="30">
       <c r="A348" s="6">
         <v>299</v>
       </c>
@@ -10659,13 +10246,13 @@
       <c r="F348" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G348" s="8" t="s">
+      <c r="G348" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="J348" s="10"/>
-      <c r="K348" s="10"/>
-    </row>
-    <row r="349" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+    </row>
+    <row r="349" spans="1:11" ht="30">
       <c r="A349" s="6">
         <v>299</v>
       </c>
@@ -10684,13 +10271,13 @@
       <c r="F349" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G349" s="8" t="s">
+      <c r="G349" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="J349" s="10"/>
-      <c r="K349" s="10"/>
-    </row>
-    <row r="350" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J349" s="9"/>
+      <c r="K349" s="9"/>
+    </row>
+    <row r="350" spans="1:11" ht="30">
       <c r="A350" s="6">
         <v>299</v>
       </c>
@@ -10709,13 +10296,13 @@
       <c r="F350" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G350" s="8" t="s">
+      <c r="G350" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="J350" s="10"/>
-      <c r="K350" s="10"/>
-    </row>
-    <row r="351" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J350" s="9"/>
+      <c r="K350" s="9"/>
+    </row>
+    <row r="351" spans="1:11" ht="45">
       <c r="A351" s="6">
         <v>299</v>
       </c>
@@ -10734,13 +10321,13 @@
       <c r="F351" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G351" s="8" t="s">
+      <c r="G351" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="J351" s="10"/>
-      <c r="K351" s="10"/>
-    </row>
-    <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J351" s="9"/>
+      <c r="K351" s="9"/>
+    </row>
+    <row r="352" spans="1:11" ht="30">
       <c r="A352" s="3">
         <v>299</v>
       </c>
@@ -10759,13 +10346,13 @@
       <c r="F352" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G352" s="5" t="s">
+      <c r="G352" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="J352" s="10"/>
-      <c r="K352" s="10"/>
-    </row>
-    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J352" s="9"/>
+      <c r="K352" s="9"/>
+    </row>
+    <row r="353" spans="1:11" ht="30">
       <c r="A353" s="3">
         <v>299</v>
       </c>
@@ -10784,13 +10371,13 @@
       <c r="F353" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G353" s="5" t="s">
+      <c r="G353" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J353" s="10"/>
-      <c r="K353" s="10"/>
-    </row>
-    <row r="354" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J353" s="9"/>
+      <c r="K353" s="9"/>
+    </row>
+    <row r="354" spans="1:11" ht="45">
       <c r="A354" s="6">
         <v>299</v>
       </c>
@@ -10809,13 +10396,13 @@
       <c r="F354" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G354" s="8" t="s">
+      <c r="G354" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="J354" s="10"/>
-      <c r="K354" s="10"/>
-    </row>
-    <row r="355" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J354" s="9"/>
+      <c r="K354" s="9"/>
+    </row>
+    <row r="355" spans="1:11" ht="45">
       <c r="A355" s="6">
         <v>299</v>
       </c>
@@ -10834,13 +10421,13 @@
       <c r="F355" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G355" s="8" t="s">
+      <c r="G355" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="J355" s="10"/>
-      <c r="K355" s="10"/>
-    </row>
-    <row r="356" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J355" s="9"/>
+      <c r="K355" s="9"/>
+    </row>
+    <row r="356" spans="1:11" ht="90">
       <c r="A356" s="6">
         <v>299</v>
       </c>
@@ -10859,13 +10446,13 @@
       <c r="F356" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G356" s="8" t="s">
+      <c r="G356" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="J356" s="10"/>
-      <c r="K356" s="10"/>
-    </row>
-    <row r="357" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J356" s="9"/>
+      <c r="K356" s="9"/>
+    </row>
+    <row r="357" spans="1:11" ht="75">
       <c r="A357" s="6">
         <v>299</v>
       </c>
@@ -10884,13 +10471,13 @@
       <c r="F357" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G357" s="8" t="s">
+      <c r="G357" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J357" s="10"/>
-      <c r="K357" s="10"/>
-    </row>
-    <row r="358" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J357" s="9"/>
+      <c r="K357" s="9"/>
+    </row>
+    <row r="358" spans="1:11" ht="75">
       <c r="A358" s="6">
         <v>299</v>
       </c>
@@ -10909,13 +10496,13 @@
       <c r="F358" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G358" s="8" t="s">
+      <c r="G358" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="J358" s="10"/>
-      <c r="K358" s="10"/>
-    </row>
-    <row r="359" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J358" s="9"/>
+      <c r="K358" s="9"/>
+    </row>
+    <row r="359" spans="1:11" ht="45">
       <c r="A359" s="6">
         <v>299</v>
       </c>
@@ -10934,13 +10521,13 @@
       <c r="F359" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G359" s="8" t="s">
+      <c r="G359" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="J359" s="10"/>
-      <c r="K359" s="10"/>
-    </row>
-    <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J359" s="9"/>
+      <c r="K359" s="9"/>
+    </row>
+    <row r="360" spans="1:11" ht="30">
       <c r="A360" s="6">
         <v>299</v>
       </c>
@@ -10959,13 +10546,13 @@
       <c r="F360" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G360" s="8" t="s">
+      <c r="G360" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="J360" s="10"/>
-      <c r="K360" s="10"/>
-    </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J360" s="9"/>
+      <c r="K360" s="9"/>
+    </row>
+    <row r="361" spans="1:11" ht="45">
       <c r="A361" s="6">
         <v>299</v>
       </c>
@@ -10984,13 +10571,13 @@
       <c r="F361" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G361" s="8" t="s">
+      <c r="G361" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="J361" s="10"/>
-      <c r="K361" s="10"/>
-    </row>
-    <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J361" s="9"/>
+      <c r="K361" s="9"/>
+    </row>
+    <row r="362" spans="1:11" ht="30">
       <c r="A362" s="6">
         <v>299</v>
       </c>
@@ -11009,13 +10596,13 @@
       <c r="F362" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G362" s="8" t="s">
+      <c r="G362" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="J362" s="10"/>
-      <c r="K362" s="10"/>
-    </row>
-    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J362" s="9"/>
+      <c r="K362" s="9"/>
+    </row>
+    <row r="363" spans="1:11" ht="45">
       <c r="A363" s="6">
         <v>299</v>
       </c>
@@ -11034,13 +10621,13 @@
       <c r="F363" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G363" s="8" t="s">
+      <c r="G363" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="J363" s="10"/>
-      <c r="K363" s="10"/>
-    </row>
-    <row r="364" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J363" s="9"/>
+      <c r="K363" s="9"/>
+    </row>
+    <row r="364" spans="1:11" ht="45">
       <c r="A364" s="3">
         <v>299</v>
       </c>
@@ -11059,13 +10646,13 @@
       <c r="F364" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G364" s="5" t="s">
+      <c r="G364" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="J364" s="10"/>
-      <c r="K364" s="10"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J364" s="9"/>
+      <c r="K364" s="9"/>
+    </row>
+    <row r="365" spans="1:11">
       <c r="A365" s="3">
         <v>299</v>
       </c>
@@ -11084,13 +10671,13 @@
       <c r="F365" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G365" s="5" t="s">
+      <c r="G365" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="J365" s="10"/>
-      <c r="K365" s="10"/>
-    </row>
-    <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J365" s="9"/>
+      <c r="K365" s="9"/>
+    </row>
+    <row r="366" spans="1:11" ht="30">
       <c r="A366" s="3">
         <v>299</v>
       </c>
@@ -11109,13 +10696,13 @@
       <c r="F366" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G366" s="5" t="s">
+      <c r="G366" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="J366" s="10"/>
-      <c r="K366" s="10"/>
-    </row>
-    <row r="367" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J366" s="9"/>
+      <c r="K366" s="9"/>
+    </row>
+    <row r="367" spans="1:11" ht="45">
       <c r="A367" s="3">
         <v>299</v>
       </c>
@@ -11134,13 +10721,13 @@
       <c r="F367" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G367" s="5" t="s">
+      <c r="G367" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J367" s="10"/>
-      <c r="K367" s="10"/>
-    </row>
-    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J367" s="9"/>
+      <c r="K367" s="9"/>
+    </row>
+    <row r="368" spans="1:11" ht="30">
       <c r="A368" s="6">
         <v>299</v>
       </c>
@@ -11159,13 +10746,13 @@
       <c r="F368" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G368" s="8" t="s">
+      <c r="G368" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="J368" s="10"/>
-      <c r="K368" s="10"/>
-    </row>
-    <row r="369" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J368" s="9"/>
+      <c r="K368" s="9"/>
+    </row>
+    <row r="369" spans="1:13" ht="30">
       <c r="A369" s="6">
         <v>299</v>
       </c>
@@ -11184,13 +10771,13 @@
       <c r="F369" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G369" s="8" t="s">
+      <c r="G369" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="J369" s="10"/>
-      <c r="K369" s="10"/>
-    </row>
-    <row r="370" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J369" s="9"/>
+      <c r="K369" s="9"/>
+    </row>
+    <row r="370" spans="1:13" ht="45">
       <c r="A370" s="6">
         <v>299</v>
       </c>
@@ -11209,13 +10796,13 @@
       <c r="F370" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G370" s="8" t="s">
+      <c r="G370" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="J370" s="10"/>
-      <c r="K370" s="10"/>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J370" s="9"/>
+      <c r="K370" s="9"/>
+    </row>
+    <row r="371" spans="1:13">
       <c r="A371" s="6">
         <v>299</v>
       </c>
@@ -11234,13 +10821,13 @@
       <c r="F371" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G371" s="8" t="s">
+      <c r="G371" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="J371" s="10"/>
-      <c r="K371" s="10"/>
-    </row>
-    <row r="372" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="J371" s="9"/>
+      <c r="K371" s="9"/>
+    </row>
+    <row r="372" spans="1:13" ht="90">
       <c r="A372" s="6">
         <v>299</v>
       </c>
@@ -11259,13 +10846,13 @@
       <c r="F372" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G372" s="8" t="s">
+      <c r="G372" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="J372" s="10"/>
-      <c r="K372" s="10"/>
-    </row>
-    <row r="373" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="J372" s="9"/>
+      <c r="K372" s="9"/>
+    </row>
+    <row r="373" spans="1:13" ht="75">
       <c r="A373" s="6">
         <v>299</v>
       </c>
@@ -11284,17 +10871,17 @@
       <c r="F373" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G373" s="8" t="s">
+      <c r="G373" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="J373" s="10"/>
-      <c r="K373" s="10"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="9"/>
       <c r="M373">
         <f ca="1">M373</f>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13">
       <c r="A374" s="6">
         <v>299</v>
       </c>
@@ -11313,13 +10900,13 @@
       <c r="F374" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G374" s="8" t="s">
+      <c r="G374" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="J374" s="10"/>
-      <c r="K374" s="10"/>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J374" s="9"/>
+      <c r="K374" s="9"/>
+    </row>
+    <row r="375" spans="1:13">
       <c r="A375" s="6">
         <v>299</v>
       </c>
@@ -11338,13 +10925,13 @@
       <c r="F375" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G375" s="8" t="s">
+      <c r="G375" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="J375" s="10"/>
-      <c r="K375" s="10"/>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J375" s="9"/>
+      <c r="K375" s="9"/>
+    </row>
+    <row r="376" spans="1:13">
       <c r="A376" s="6">
         <v>299</v>
       </c>
@@ -11363,13 +10950,13 @@
       <c r="F376" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G376" s="8" t="s">
+      <c r="G376" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="J376" s="10"/>
-      <c r="K376" s="10"/>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J376" s="9"/>
+      <c r="K376" s="9"/>
+    </row>
+    <row r="377" spans="1:13">
       <c r="A377" s="6">
         <v>299</v>
       </c>
@@ -11388,13 +10975,13 @@
       <c r="F377" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G377" s="8" t="s">
+      <c r="G377" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="J377" s="10"/>
-      <c r="K377" s="10"/>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J377" s="9"/>
+      <c r="K377" s="9"/>
+    </row>
+    <row r="378" spans="1:13">
       <c r="A378" s="6">
         <v>299</v>
       </c>
@@ -11413,13 +11000,13 @@
       <c r="F378" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G378" s="8" t="s">
+      <c r="G378" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="J378" s="10"/>
-      <c r="K378" s="10"/>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J378" s="9"/>
+      <c r="K378" s="9"/>
+    </row>
+    <row r="379" spans="1:13">
       <c r="A379" s="6">
         <v>299</v>
       </c>
@@ -11438,13 +11025,13 @@
       <c r="F379" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G379" s="8" t="s">
+      <c r="G379" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="J379" s="10"/>
-      <c r="K379" s="10"/>
-    </row>
-    <row r="380" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="J379" s="9"/>
+      <c r="K379" s="9"/>
+    </row>
+    <row r="380" spans="1:13" ht="60">
       <c r="A380" s="6">
         <v>299</v>
       </c>
@@ -11463,13 +11050,13 @@
       <c r="F380" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G380" s="8" t="s">
+      <c r="G380" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J380" s="10"/>
-      <c r="K380" s="10"/>
-    </row>
-    <row r="381" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J380" s="9"/>
+      <c r="K380" s="9"/>
+    </row>
+    <row r="381" spans="1:13" ht="45">
       <c r="A381" s="3">
         <v>299</v>
       </c>
@@ -11488,13 +11075,13 @@
       <c r="F381" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G381" s="5" t="s">
+      <c r="G381" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="J381" s="10"/>
-      <c r="K381" s="10"/>
-    </row>
-    <row r="382" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J381" s="9"/>
+      <c r="K381" s="9"/>
+    </row>
+    <row r="382" spans="1:13" ht="45">
       <c r="A382" s="3">
         <v>299</v>
       </c>
@@ -11513,13 +11100,13 @@
       <c r="F382" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G382" s="5" t="s">
+      <c r="G382" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="J382" s="10"/>
-      <c r="K382" s="10"/>
-    </row>
-    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J382" s="9"/>
+      <c r="K382" s="9"/>
+    </row>
+    <row r="383" spans="1:13" ht="30">
       <c r="A383" s="3">
         <v>299</v>
       </c>
@@ -11538,13 +11125,13 @@
       <c r="F383" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G383" s="5" t="s">
+      <c r="G383" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="J383" s="10"/>
-      <c r="K383" s="10"/>
-    </row>
-    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J383" s="9"/>
+      <c r="K383" s="9"/>
+    </row>
+    <row r="384" spans="1:13" ht="30">
       <c r="A384" s="3">
         <v>299</v>
       </c>
@@ -11563,13 +11150,13 @@
       <c r="F384" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G384" s="5" t="s">
+      <c r="G384" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="J384" s="10"/>
-      <c r="K384" s="10"/>
-    </row>
-    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J384" s="9"/>
+      <c r="K384" s="9"/>
+    </row>
+    <row r="385" spans="1:11" ht="30">
       <c r="A385" s="3">
         <v>299</v>
       </c>
@@ -11588,13 +11175,13 @@
       <c r="F385" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G385" s="5" t="s">
+      <c r="G385" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="J385" s="10"/>
-      <c r="K385" s="10"/>
-    </row>
-    <row r="386" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J385" s="9"/>
+      <c r="K385" s="9"/>
+    </row>
+    <row r="386" spans="1:11" ht="30">
       <c r="A386" s="6">
         <v>349</v>
       </c>
@@ -11613,11 +11200,11 @@
       <c r="F386" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="G386" s="8" t="s">
+      <c r="G386" s="12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="45">
       <c r="A387" s="3">
         <v>299</v>
       </c>
@@ -11636,13 +11223,13 @@
       <c r="F387" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G387" s="5" t="s">
+      <c r="G387" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="J387" s="10"/>
-      <c r="K387" s="10"/>
-    </row>
-    <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J387" s="9"/>
+      <c r="K387" s="9"/>
+    </row>
+    <row r="388" spans="1:11" ht="30">
       <c r="A388" s="3">
         <v>299</v>
       </c>
@@ -11661,13 +11248,13 @@
       <c r="F388" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G388" s="5" t="s">
+      <c r="G388" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J388" s="10"/>
-      <c r="K388" s="10"/>
-    </row>
-    <row r="389" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J388" s="9"/>
+      <c r="K388" s="9"/>
+    </row>
+    <row r="389" spans="1:11" ht="45">
       <c r="A389" s="3">
         <v>299</v>
       </c>
@@ -11686,13 +11273,13 @@
       <c r="F389" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G389" s="5" t="s">
+      <c r="G389" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J389" s="10"/>
-      <c r="K389" s="10"/>
-    </row>
-    <row r="390" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J389" s="9"/>
+      <c r="K389" s="9"/>
+    </row>
+    <row r="390" spans="1:11" ht="90">
       <c r="A390" s="3">
         <v>299</v>
       </c>
@@ -11711,13 +11298,13 @@
       <c r="F390" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G390" s="5" t="s">
+      <c r="G390" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="J390" s="10"/>
-      <c r="K390" s="10"/>
-    </row>
-    <row r="391" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J390" s="9"/>
+      <c r="K390" s="9"/>
+    </row>
+    <row r="391" spans="1:11" ht="75">
       <c r="A391" s="6">
         <v>86</v>
       </c>
@@ -11736,11 +11323,11 @@
       <c r="F391" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G391" s="8" t="s">
+      <c r="G391" s="12" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="45">
       <c r="A392" s="6">
         <v>86</v>
       </c>
@@ -11759,11 +11346,11 @@
       <c r="F392" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G392" s="8" t="s">
+      <c r="G392" s="12" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="45">
       <c r="A393" s="6">
         <v>86</v>
       </c>
@@ -11782,11 +11369,11 @@
       <c r="F393" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G393" s="8" t="s">
+      <c r="G393" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30">
       <c r="A394" s="6">
         <v>86</v>
       </c>
@@ -11805,11 +11392,11 @@
       <c r="F394" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G394" s="8" t="s">
+      <c r="G394" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30">
       <c r="A395" s="3">
         <v>233</v>
       </c>
@@ -11828,11 +11415,11 @@
       <c r="F395" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="G395" s="5" t="s">
+      <c r="G395" s="11" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="30">
       <c r="A396" s="3">
         <v>233</v>
       </c>
@@ -11851,11 +11438,11 @@
       <c r="F396" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="G396" s="5" t="s">
+      <c r="G396" s="11" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30">
       <c r="A397" s="6">
         <v>86</v>
       </c>
@@ -11874,11 +11461,11 @@
       <c r="F397" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G397" s="8" t="s">
+      <c r="G397" s="12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30">
       <c r="A398" s="6">
         <v>86</v>
       </c>
@@ -11897,11 +11484,11 @@
       <c r="F398" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G398" s="8" t="s">
+      <c r="G398" s="12" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="45">
       <c r="A399" s="6">
         <v>86</v>
       </c>
@@ -11920,11 +11507,11 @@
       <c r="F399" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G399" s="8" t="s">
+      <c r="G399" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45">
       <c r="A400" s="3">
         <v>86</v>
       </c>
@@ -11943,11 +11530,11 @@
       <c r="F400" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G400" s="5" t="s">
+      <c r="G400" s="11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="30">
       <c r="A401" s="3">
         <v>86</v>
       </c>
@@ -11966,11 +11553,11 @@
       <c r="F401" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G401" s="5" t="s">
+      <c r="G401" s="11" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="45">
       <c r="A402" s="3">
         <v>86</v>
       </c>
@@ -11989,11 +11576,11 @@
       <c r="F402" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G402" s="5" t="s">
+      <c r="G402" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="3">
         <v>86</v>
       </c>
@@ -12012,11 +11599,11 @@
       <c r="F403" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G403" s="5" t="s">
+      <c r="G403" s="11" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="30">
       <c r="A404" s="3">
         <v>86</v>
       </c>
@@ -12035,11 +11622,11 @@
       <c r="F404" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G404" s="5" t="s">
+      <c r="G404" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="30">
       <c r="A405" s="3">
         <v>86</v>
       </c>
@@ -12058,11 +11645,11 @@
       <c r="F405" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G405" s="5" t="s">
+      <c r="G405" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="75">
       <c r="A406" s="3">
         <v>86</v>
       </c>
@@ -12081,11 +11668,11 @@
       <c r="F406" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G406" s="5" t="s">
+      <c r="G406" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="45">
       <c r="A407" s="3">
         <v>86</v>
       </c>
@@ -12104,11 +11691,11 @@
       <c r="F407" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G407" s="5" t="s">
+      <c r="G407" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="30">
       <c r="A408" s="3">
         <v>86</v>
       </c>
@@ -12127,11 +11714,11 @@
       <c r="F408" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G408" s="5" t="s">
+      <c r="G408" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="45">
       <c r="A409" s="3">
         <v>86</v>
       </c>
@@ -12150,11 +11737,11 @@
       <c r="F409" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G409" s="5" t="s">
+      <c r="G409" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="60">
       <c r="A410" s="3">
         <v>86</v>
       </c>
@@ -12173,11 +11760,11 @@
       <c r="F410" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G410" s="5" t="s">
+      <c r="G410" s="11" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="30">
       <c r="A411" s="3">
         <v>86</v>
       </c>
@@ -12196,11 +11783,11 @@
       <c r="F411" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G411" s="5" t="s">
+      <c r="G411" s="11" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="45">
       <c r="A412" s="6">
         <v>86</v>
       </c>
@@ -12219,7 +11806,7 @@
       <c r="F412" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G412" s="8" t="s">
+      <c r="G412" s="12" t="s">
         <v>471</v>
       </c>
     </row>
